--- a/BackTest/2019-10-26 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-26 BackTest ZRX.xlsx
@@ -11371,61 +11371,55 @@
         <v>335.2</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>337</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>336</v>
+      </c>
+      <c r="C315" t="n">
+        <v>340</v>
+      </c>
+      <c r="D315" t="n">
+        <v>340</v>
+      </c>
+      <c r="E315" t="n">
+        <v>335</v>
+      </c>
+      <c r="F315" t="n">
+        <v>21965.82521750742</v>
+      </c>
+      <c r="G315" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>336</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>336</v>
-      </c>
-      <c r="C315" t="n">
-        <v>340</v>
-      </c>
-      <c r="D315" t="n">
-        <v>340</v>
-      </c>
-      <c r="E315" t="n">
-        <v>335</v>
-      </c>
-      <c r="F315" t="n">
-        <v>21965.82521750742</v>
-      </c>
-      <c r="G315" t="n">
-        <v>336.6</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
-        <v>336</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
@@ -11535,14 +11529,12 @@
         <v>337</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>335</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -11576,14 +11568,12 @@
         <v>337.6</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>335</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -11617,14 +11607,12 @@
         <v>337.4</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>336</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -11658,14 +11646,12 @@
         <v>337</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>343</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -11699,14 +11685,12 @@
         <v>338.2</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>337</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -11740,14 +11724,12 @@
         <v>340</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>342</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -11781,14 +11763,12 @@
         <v>341</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>342</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -11822,14 +11802,12 @@
         <v>341</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>339</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -11863,14 +11841,12 @@
         <v>341.6</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>338</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -11904,14 +11880,12 @@
         <v>340.8</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>341</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -11945,14 +11919,12 @@
         <v>339.6</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>337</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -11986,14 +11958,12 @@
         <v>338.4</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>338</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12027,14 +11997,12 @@
         <v>337.8</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>338</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12068,14 +12036,12 @@
         <v>336.8</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>336</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12109,14 +12075,12 @@
         <v>337</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>338</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12150,14 +12114,12 @@
         <v>337.4</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>339</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12191,14 +12153,12 @@
         <v>338.8</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>340</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12232,14 +12192,12 @@
         <v>340.4</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>344</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12273,14 +12231,12 @@
         <v>342.2</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>344</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12314,14 +12270,12 @@
         <v>343.6</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>346</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12355,14 +12309,12 @@
         <v>345.2</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>345</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12903,14 +12855,12 @@
         <v>341.8</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>345</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13376,18 +13326,16 @@
         <v>0</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13415,15 +13363,11 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +13402,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13497,11 +13437,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +13472,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13571,16 +13503,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13608,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
@@ -13643,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
@@ -13678,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
@@ -17700,20 +17630,14 @@
         <v>340.6</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>341</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17741,20 +17665,14 @@
         <v>340.8</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>341</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17782,20 +17700,14 @@
         <v>340.6</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>341</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17823,20 +17735,14 @@
         <v>340.8</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>341</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17864,20 +17770,14 @@
         <v>340.8</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>341</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17905,20 +17805,14 @@
         <v>341.2</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>342</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17946,20 +17840,14 @@
         <v>341.2</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>341</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17987,20 +17875,14 @@
         <v>341.6</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>342</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18028,20 +17910,14 @@
         <v>342</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>342</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18069,20 +17945,14 @@
         <v>342</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>342</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18110,20 +17980,14 @@
         <v>342.2</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>342</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18151,20 +18015,14 @@
         <v>342.4</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>342</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18192,20 +18050,14 @@
         <v>342</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>341</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18233,20 +18085,14 @@
         <v>341.8</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>341</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18274,20 +18120,14 @@
         <v>342.2</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>343</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18315,20 +18155,14 @@
         <v>341.8</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>341</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18363,11 +18197,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18395,20 +18225,14 @@
         <v>342.2</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>342</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18443,11 +18267,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18482,11 +18302,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18514,20 +18330,14 @@
         <v>342.4</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>343</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18562,11 +18372,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18407,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18640,11 +18442,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +18477,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18718,11 +18512,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18757,11 +18547,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18796,11 +18582,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18835,11 +18617,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18874,11 +18652,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18913,11 +18687,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18952,11 +18722,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18991,11 +18757,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +18792,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19069,11 +18827,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19108,11 +18862,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19147,11 +18897,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19186,11 +18932,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19225,11 +18967,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19264,11 +19002,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19303,11 +19037,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19342,11 +19072,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19381,11 +19107,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +19142,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +19177,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19498,11 +19212,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19537,11 +19247,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19576,11 +19282,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19615,11 +19317,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19654,11 +19352,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19693,11 +19387,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19732,11 +19422,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19771,11 +19457,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19810,11 +19492,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19849,11 +19527,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +19562,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19927,11 +19597,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19966,11 +19632,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20005,11 +19667,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20044,11 +19702,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20083,11 +19737,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +19772,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20161,11 +19807,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +19842,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20239,11 +19877,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20278,11 +19912,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +19947,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20356,11 +19982,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20395,11 +20017,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20434,11 +20052,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20473,11 +20087,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20512,11 +20122,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20551,11 +20157,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20590,11 +20192,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20629,11 +20227,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20668,11 +20262,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20707,11 +20297,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20332,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20785,11 +20367,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20824,11 +20402,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +20437,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20902,11 +20472,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20941,11 +20507,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20980,11 +20542,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21019,11 +20577,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21058,11 +20612,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21097,11 +20647,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21136,11 +20682,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +20717,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21214,11 +20752,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21253,11 +20787,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21292,11 +20822,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21331,11 +20857,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21370,11 +20892,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21409,11 +20927,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21448,11 +20962,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21487,11 +20997,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21526,11 +21032,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21565,11 +21067,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21102,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21643,11 +21137,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +21172,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21721,11 +21207,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21760,11 +21242,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21799,11 +21277,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21838,11 +21312,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21877,11 +21347,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21916,11 +21382,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21955,11 +21417,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21994,11 +21452,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +21487,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22072,11 +21522,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22111,11 +21557,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22150,11 +21592,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22189,11 +21627,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22228,11 +21662,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22267,11 +21697,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22306,11 +21732,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22345,11 +21767,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22384,11 +21802,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22423,11 +21837,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +21872,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22501,11 +21907,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22540,11 +21942,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22579,11 +21977,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22618,11 +22012,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22657,11 +22047,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22696,11 +22082,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22735,11 +22117,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +22152,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22813,11 +22187,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22852,11 +22222,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +22257,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22930,11 +22292,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22969,11 +22327,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23008,11 +22362,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23047,11 +22397,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23086,11 +22432,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23125,11 +22467,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23164,11 +22502,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23203,11 +22537,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23242,11 +22572,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23281,11 +22607,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +22642,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23359,11 +22677,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23398,11 +22712,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23437,11 +22747,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23476,11 +22782,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23515,11 +22817,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23554,11 +22852,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23593,11 +22887,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23632,11 +22922,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23671,11 +22957,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23710,11 +22992,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23027,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23788,11 +23062,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23827,11 +23097,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23866,11 +23132,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23905,11 +23167,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23944,11 +23202,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23983,11 +23237,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24022,11 +23272,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24061,11 +23307,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24100,11 +23342,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24139,11 +23377,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +23412,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24217,11 +23447,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24256,11 +23482,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24295,11 +23517,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24334,11 +23552,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24373,11 +23587,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +23622,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24451,11 +23657,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24490,11 +23692,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24529,11 +23727,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +23762,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +23797,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24646,11 +23832,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24685,11 +23867,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24724,11 +23902,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24763,11 +23937,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24802,11 +23972,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24841,11 +24007,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24880,11 +24042,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24919,11 +24077,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24958,11 +24112,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24997,11 +24147,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +24182,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25075,11 +24217,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25114,11 +24252,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25153,11 +24287,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25192,11 +24322,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25231,11 +24357,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25270,11 +24392,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25309,11 +24427,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-26 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>65566.78330000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>64157.58200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>64158.58200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>53871.16830000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>66516.51890000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>66027.17160000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>66545.20040000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>65917.22950000003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>65917.22950000003</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>63145.77300000003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>63145.77300000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>64449.22010000003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>64589.95950000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>64704.76680000003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>65110.90860000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>72952.91450000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>64838.16590000003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>79038.19570737708</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>77672.04160737708</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>63888.91700737708</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>63858.13660737708</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>63998.22770737707</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>35814.61270737708</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>35404.77660737708</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>32084.39720737708</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27703.20630737708</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>26414.12870737708</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>26414.12870737708</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26415.12870737708</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>26415.12870737708</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26811.60000737708</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>17557.05100737709</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>17561.36510737709</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>17560.36510737709</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>17063.10350737708</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>17063.10350737708</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>17083.00350737709</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>12202.02690737709</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>11011.64700737709</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6249.783107377087</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>11319.64420619055</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>11279.77800619055</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>20552.6848443928</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>26880.7794443928</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>32581.55888943946</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>35446.23048943946</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>46932.13158943946</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>63151.19058943946</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>63151.19058943946</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>29479.91698943946</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>31521.70508943946</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>29686.41998943946</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>33260.41998943946</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>35341.39738943946</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>30731.39738943946</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>18291.86718943946</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>18291.86718943946</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-28139.32521056054</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-28139.32521056054</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-28119.32521056054</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-28140.59881056054</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-28140.59881056054</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-12713.78044671873</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-11482.61234671873</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11482.61234671873</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-8237.910346718727</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-85025.4992467187</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -18964,14 +18964,10 @@
         <v>-1198601.734114164</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>343</v>
-      </c>
-      <c r="J563" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
@@ -19004,2247 +19000,1835 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
         <v>343</v>
       </c>
-      <c r="K564" t="inlineStr">
+      <c r="C565" t="n">
+        <v>343</v>
+      </c>
+      <c r="D565" t="n">
+        <v>343</v>
+      </c>
+      <c r="E565" t="n">
+        <v>343</v>
+      </c>
+      <c r="F565" t="n">
+        <v>44</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-1200080.762414164</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>343</v>
+      </c>
+      <c r="C566" t="n">
+        <v>343</v>
+      </c>
+      <c r="D566" t="n">
+        <v>343</v>
+      </c>
+      <c r="E566" t="n">
+        <v>343</v>
+      </c>
+      <c r="F566" t="n">
+        <v>231.8593</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-1200080.762414164</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>343</v>
+      </c>
+      <c r="C567" t="n">
+        <v>344</v>
+      </c>
+      <c r="D567" t="n">
+        <v>344</v>
+      </c>
+      <c r="E567" t="n">
+        <v>343</v>
+      </c>
+      <c r="F567" t="n">
+        <v>8050.7569</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-1192030.005514164</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>343</v>
+      </c>
+      <c r="C568" t="n">
+        <v>344</v>
+      </c>
+      <c r="D568" t="n">
+        <v>344</v>
+      </c>
+      <c r="E568" t="n">
+        <v>343</v>
+      </c>
+      <c r="F568" t="n">
+        <v>705.2477</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-1192030.005514164</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>343</v>
+      </c>
+      <c r="C569" t="n">
+        <v>344</v>
+      </c>
+      <c r="D569" t="n">
+        <v>344</v>
+      </c>
+      <c r="E569" t="n">
+        <v>343</v>
+      </c>
+      <c r="F569" t="n">
+        <v>5737.3038</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-1192030.005514164</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>344</v>
+      </c>
+      <c r="C570" t="n">
+        <v>344</v>
+      </c>
+      <c r="D570" t="n">
+        <v>344</v>
+      </c>
+      <c r="E570" t="n">
+        <v>344</v>
+      </c>
+      <c r="F570" t="n">
+        <v>245.3057</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-1192030.005514164</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>344</v>
+      </c>
+      <c r="C571" t="n">
+        <v>344</v>
+      </c>
+      <c r="D571" t="n">
+        <v>344</v>
+      </c>
+      <c r="E571" t="n">
+        <v>344</v>
+      </c>
+      <c r="F571" t="n">
+        <v>1436.3481</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-1192030.005514164</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>345</v>
+      </c>
+      <c r="C572" t="n">
+        <v>345</v>
+      </c>
+      <c r="D572" t="n">
+        <v>345</v>
+      </c>
+      <c r="E572" t="n">
+        <v>345</v>
+      </c>
+      <c r="F572" t="n">
+        <v>1</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-1192029.005514164</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>345</v>
+      </c>
+      <c r="C573" t="n">
+        <v>345</v>
+      </c>
+      <c r="D573" t="n">
+        <v>345</v>
+      </c>
+      <c r="E573" t="n">
+        <v>345</v>
+      </c>
+      <c r="F573" t="n">
+        <v>2500.2281</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-1192029.005514164</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>345</v>
+      </c>
+      <c r="C574" t="n">
+        <v>346</v>
+      </c>
+      <c r="D574" t="n">
+        <v>346</v>
+      </c>
+      <c r="E574" t="n">
+        <v>345</v>
+      </c>
+      <c r="F574" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-1186029.005514164</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>346</v>
+      </c>
+      <c r="C575" t="n">
+        <v>346</v>
+      </c>
+      <c r="D575" t="n">
+        <v>346</v>
+      </c>
+      <c r="E575" t="n">
+        <v>346</v>
+      </c>
+      <c r="F575" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-1186029.005514164</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>346</v>
+      </c>
+      <c r="C576" t="n">
+        <v>346</v>
+      </c>
+      <c r="D576" t="n">
+        <v>346</v>
+      </c>
+      <c r="E576" t="n">
+        <v>346</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2004.899</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-1186029.005514164</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>346</v>
+      </c>
+      <c r="C577" t="n">
+        <v>346</v>
+      </c>
+      <c r="D577" t="n">
+        <v>346</v>
+      </c>
+      <c r="E577" t="n">
+        <v>346</v>
+      </c>
+      <c r="F577" t="n">
+        <v>85.02209999999999</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-1186029.005514164</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>347</v>
+      </c>
+      <c r="C578" t="n">
+        <v>347</v>
+      </c>
+      <c r="D578" t="n">
+        <v>347</v>
+      </c>
+      <c r="E578" t="n">
+        <v>347</v>
+      </c>
+      <c r="F578" t="n">
+        <v>9.5677</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-1186019.437814164</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>346</v>
+      </c>
+      <c r="C579" t="n">
+        <v>346</v>
+      </c>
+      <c r="D579" t="n">
+        <v>346</v>
+      </c>
+      <c r="E579" t="n">
+        <v>346</v>
+      </c>
+      <c r="F579" t="n">
+        <v>9.4198</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-1186028.857614164</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>347</v>
+      </c>
+      <c r="C580" t="n">
+        <v>347</v>
+      </c>
+      <c r="D580" t="n">
+        <v>347</v>
+      </c>
+      <c r="E580" t="n">
+        <v>347</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-1184028.857614164</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>347</v>
+      </c>
+      <c r="C581" t="n">
+        <v>347</v>
+      </c>
+      <c r="D581" t="n">
+        <v>347</v>
+      </c>
+      <c r="E581" t="n">
+        <v>347</v>
+      </c>
+      <c r="F581" t="n">
+        <v>86.0013</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-1184028.857614164</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>347</v>
+      </c>
+      <c r="C582" t="n">
+        <v>348</v>
+      </c>
+      <c r="D582" t="n">
+        <v>348</v>
+      </c>
+      <c r="E582" t="n">
+        <v>347</v>
+      </c>
+      <c r="F582" t="n">
+        <v>7773.553</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>348</v>
+      </c>
+      <c r="C583" t="n">
+        <v>348</v>
+      </c>
+      <c r="D583" t="n">
+        <v>348</v>
+      </c>
+      <c r="E583" t="n">
+        <v>348</v>
+      </c>
+      <c r="F583" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>348</v>
+      </c>
+      <c r="C584" t="n">
+        <v>348</v>
+      </c>
+      <c r="D584" t="n">
+        <v>348</v>
+      </c>
+      <c r="E584" t="n">
+        <v>348</v>
+      </c>
+      <c r="F584" t="n">
+        <v>90.3899</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>348</v>
+      </c>
+      <c r="C585" t="n">
+        <v>348</v>
+      </c>
+      <c r="D585" t="n">
+        <v>348</v>
+      </c>
+      <c r="E585" t="n">
+        <v>348</v>
+      </c>
+      <c r="F585" t="n">
+        <v>9</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>348</v>
+      </c>
+      <c r="C586" t="n">
+        <v>348</v>
+      </c>
+      <c r="D586" t="n">
+        <v>348</v>
+      </c>
+      <c r="E586" t="n">
+        <v>348</v>
+      </c>
+      <c r="F586" t="n">
+        <v>261.6082</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>347</v>
+      </c>
+      <c r="C587" t="n">
+        <v>348</v>
+      </c>
+      <c r="D587" t="n">
+        <v>348</v>
+      </c>
+      <c r="E587" t="n">
+        <v>347</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1340.5133</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>348</v>
+      </c>
+      <c r="C588" t="n">
+        <v>348</v>
+      </c>
+      <c r="D588" t="n">
+        <v>348</v>
+      </c>
+      <c r="E588" t="n">
+        <v>348</v>
+      </c>
+      <c r="F588" t="n">
+        <v>2911.6551</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-1176255.304614164</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>346</v>
+      </c>
+      <c r="C589" t="n">
+        <v>346</v>
+      </c>
+      <c r="D589" t="n">
+        <v>346</v>
+      </c>
+      <c r="E589" t="n">
+        <v>346</v>
+      </c>
+      <c r="F589" t="n">
+        <v>447.4209</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-1176702.725514164</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>346</v>
+      </c>
+      <c r="C590" t="n">
+        <v>348</v>
+      </c>
+      <c r="D590" t="n">
+        <v>348</v>
+      </c>
+      <c r="E590" t="n">
+        <v>346</v>
+      </c>
+      <c r="F590" t="n">
+        <v>12.5775275862069</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-1176690.147986578</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>348</v>
+      </c>
+      <c r="C591" t="n">
+        <v>348</v>
+      </c>
+      <c r="D591" t="n">
+        <v>348</v>
+      </c>
+      <c r="E591" t="n">
+        <v>348</v>
+      </c>
+      <c r="F591" t="n">
+        <v>7.043103448275862</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-1176690.147986578</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>348</v>
+      </c>
+      <c r="C592" t="n">
+        <v>348</v>
+      </c>
+      <c r="D592" t="n">
+        <v>348</v>
+      </c>
+      <c r="E592" t="n">
+        <v>348</v>
+      </c>
+      <c r="F592" t="n">
+        <v>364.2194</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-1176690.147986578</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>348</v>
+      </c>
+      <c r="C593" t="n">
+        <v>348</v>
+      </c>
+      <c r="D593" t="n">
+        <v>348</v>
+      </c>
+      <c r="E593" t="n">
+        <v>348</v>
+      </c>
+      <c r="F593" t="n">
+        <v>2231.5102</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-1176690.147986578</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>349</v>
+      </c>
+      <c r="C594" t="n">
+        <v>349</v>
+      </c>
+      <c r="D594" t="n">
+        <v>349</v>
+      </c>
+      <c r="E594" t="n">
+        <v>349</v>
+      </c>
+      <c r="F594" t="n">
+        <v>57</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-1176633.147986578</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>349</v>
+      </c>
+      <c r="C595" t="n">
+        <v>349</v>
+      </c>
+      <c r="D595" t="n">
+        <v>349</v>
+      </c>
+      <c r="E595" t="n">
+        <v>349</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1686.4527</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-1176633.147986578</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>348</v>
+      </c>
+      <c r="C596" t="n">
+        <v>348</v>
+      </c>
+      <c r="D596" t="n">
+        <v>348</v>
+      </c>
+      <c r="E596" t="n">
+        <v>348</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1656.2161</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-1178289.364086578</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>349</v>
+      </c>
+      <c r="C597" t="n">
+        <v>349</v>
+      </c>
+      <c r="D597" t="n">
+        <v>349</v>
+      </c>
+      <c r="E597" t="n">
+        <v>349</v>
+      </c>
+      <c r="F597" t="n">
+        <v>59.9025</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-1178229.461586578</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>349</v>
+      </c>
+      <c r="C598" t="n">
+        <v>349</v>
+      </c>
+      <c r="D598" t="n">
+        <v>349</v>
+      </c>
+      <c r="E598" t="n">
+        <v>347</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3019.6874</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-1178229.461586578</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>349</v>
+      </c>
+      <c r="C599" t="n">
+        <v>349</v>
+      </c>
+      <c r="D599" t="n">
+        <v>349</v>
+      </c>
+      <c r="E599" t="n">
+        <v>349</v>
+      </c>
+      <c r="F599" t="n">
+        <v>4008.103</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-1178229.461586578</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>349</v>
+      </c>
+      <c r="C600" t="n">
+        <v>349</v>
+      </c>
+      <c r="D600" t="n">
+        <v>349</v>
+      </c>
+      <c r="E600" t="n">
+        <v>349</v>
+      </c>
+      <c r="F600" t="n">
+        <v>3522.5696</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-1178229.461586578</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>349</v>
+      </c>
+      <c r="C601" t="n">
+        <v>349</v>
+      </c>
+      <c r="D601" t="n">
+        <v>349</v>
+      </c>
+      <c r="E601" t="n">
+        <v>349</v>
+      </c>
+      <c r="F601" t="n">
+        <v>3928.4454</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-1178229.461586578</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>349</v>
+      </c>
+      <c r="C602" t="n">
+        <v>350</v>
+      </c>
+      <c r="D602" t="n">
+        <v>350</v>
+      </c>
+      <c r="E602" t="n">
+        <v>349</v>
+      </c>
+      <c r="F602" t="n">
+        <v>2811.0135</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-1175418.448086578</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>350</v>
+      </c>
+      <c r="C603" t="n">
+        <v>350</v>
+      </c>
+      <c r="D603" t="n">
+        <v>350</v>
+      </c>
+      <c r="E603" t="n">
+        <v>349</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1582.1338</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-1175418.448086578</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>350</v>
+      </c>
+      <c r="C604" t="n">
+        <v>350</v>
+      </c>
+      <c r="D604" t="n">
+        <v>350</v>
+      </c>
+      <c r="E604" t="n">
+        <v>350</v>
+      </c>
+      <c r="F604" t="n">
+        <v>815.3114285714286</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-1175418.448086578</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>348</v>
+      </c>
+      <c r="C605" t="n">
+        <v>348</v>
+      </c>
+      <c r="D605" t="n">
+        <v>348</v>
+      </c>
+      <c r="E605" t="n">
+        <v>348</v>
+      </c>
+      <c r="F605" t="n">
+        <v>8534.495999999999</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-1183952.944086578</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>349</v>
+      </c>
+      <c r="C606" t="n">
+        <v>349</v>
+      </c>
+      <c r="D606" t="n">
+        <v>349</v>
+      </c>
+      <c r="E606" t="n">
+        <v>349</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-1182471.944086578</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>348</v>
+      </c>
+      <c r="C607" t="n">
+        <v>348</v>
+      </c>
+      <c r="D607" t="n">
+        <v>348</v>
+      </c>
+      <c r="E607" t="n">
+        <v>348</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1649.0353</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-1184120.979386578</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>348</v>
+      </c>
+      <c r="C608" t="n">
+        <v>347</v>
+      </c>
+      <c r="D608" t="n">
+        <v>348</v>
+      </c>
+      <c r="E608" t="n">
+        <v>347</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1310.9412</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-1185431.920586578</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>349</v>
+      </c>
+      <c r="C609" t="n">
+        <v>349</v>
+      </c>
+      <c r="D609" t="n">
+        <v>349</v>
+      </c>
+      <c r="E609" t="n">
+        <v>349</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-1183996.920586578</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>347</v>
+      </c>
+      <c r="C610" t="n">
+        <v>348</v>
+      </c>
+      <c r="D610" t="n">
+        <v>348</v>
+      </c>
+      <c r="E610" t="n">
+        <v>347</v>
+      </c>
+      <c r="F610" t="n">
+        <v>934.6091</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-1184931.529686578</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>348</v>
+      </c>
+      <c r="C611" t="n">
+        <v>349</v>
+      </c>
+      <c r="D611" t="n">
+        <v>349</v>
+      </c>
+      <c r="E611" t="n">
+        <v>348</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1181.9394</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-1183749.590286578</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>349</v>
+      </c>
+      <c r="C612" t="n">
+        <v>349</v>
+      </c>
+      <c r="D612" t="n">
+        <v>349</v>
+      </c>
+      <c r="E612" t="n">
+        <v>349</v>
+      </c>
+      <c r="F612" t="n">
+        <v>12383.8985</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-1183749.590286578</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>350</v>
+      </c>
+      <c r="C613" t="n">
+        <v>350</v>
+      </c>
+      <c r="D613" t="n">
+        <v>350</v>
+      </c>
+      <c r="E613" t="n">
+        <v>350</v>
+      </c>
+      <c r="F613" t="n">
+        <v>538</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-1183211.590286578</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>349</v>
+      </c>
+      <c r="C614" t="n">
+        <v>349</v>
+      </c>
+      <c r="D614" t="n">
+        <v>349</v>
+      </c>
+      <c r="E614" t="n">
+        <v>349</v>
+      </c>
+      <c r="F614" t="n">
+        <v>4735.7857</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-1187947.375986578</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>349</v>
+      </c>
+      <c r="C615" t="n">
+        <v>347</v>
+      </c>
+      <c r="D615" t="n">
+        <v>349</v>
+      </c>
+      <c r="E615" t="n">
+        <v>347</v>
+      </c>
+      <c r="F615" t="n">
+        <v>13026.4733</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-1200973.849286578</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>347</v>
+      </c>
+      <c r="C616" t="n">
+        <v>347</v>
+      </c>
+      <c r="D616" t="n">
+        <v>347</v>
+      </c>
+      <c r="E616" t="n">
+        <v>347</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1677.0287</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-1200973.849286578</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>346</v>
+      </c>
+      <c r="C617" t="n">
+        <v>346</v>
+      </c>
+      <c r="D617" t="n">
+        <v>346</v>
+      </c>
+      <c r="E617" t="n">
+        <v>346</v>
+      </c>
+      <c r="F617" t="n">
+        <v>460.7456</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-1201434.594886578</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>346</v>
+      </c>
+      <c r="C618" t="n">
+        <v>346</v>
+      </c>
+      <c r="D618" t="n">
+        <v>346</v>
+      </c>
+      <c r="E618" t="n">
+        <v>346</v>
+      </c>
+      <c r="F618" t="n">
+        <v>41.6789</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-1201434.594886578</v>
+      </c>
+      <c r="H618" t="n">
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>346</v>
+      </c>
+      <c r="J618" t="n">
+        <v>346</v>
+      </c>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>346</v>
+      </c>
+      <c r="C619" t="n">
+        <v>345</v>
+      </c>
+      <c r="D619" t="n">
+        <v>346</v>
+      </c>
+      <c r="E619" t="n">
+        <v>345</v>
+      </c>
+      <c r="F619" t="n">
+        <v>317.265</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-1201751.859886578</v>
+      </c>
+      <c r="H619" t="n">
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>346</v>
+      </c>
+      <c r="J619" t="n">
+        <v>346</v>
+      </c>
+      <c r="K619" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>343</v>
-      </c>
-      <c r="C565" t="n">
-        <v>343</v>
-      </c>
-      <c r="D565" t="n">
-        <v>343</v>
-      </c>
-      <c r="E565" t="n">
-        <v>343</v>
-      </c>
-      <c r="F565" t="n">
-        <v>44</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-1200080.762414164</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>343</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>343</v>
-      </c>
-      <c r="C566" t="n">
-        <v>343</v>
-      </c>
-      <c r="D566" t="n">
-        <v>343</v>
-      </c>
-      <c r="E566" t="n">
-        <v>343</v>
-      </c>
-      <c r="F566" t="n">
-        <v>231.8593</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-1200080.762414164</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>343</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>343</v>
-      </c>
-      <c r="C567" t="n">
-        <v>344</v>
-      </c>
-      <c r="D567" t="n">
-        <v>344</v>
-      </c>
-      <c r="E567" t="n">
-        <v>343</v>
-      </c>
-      <c r="F567" t="n">
-        <v>8050.7569</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-1192030.005514164</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>343</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>343</v>
-      </c>
-      <c r="C568" t="n">
-        <v>344</v>
-      </c>
-      <c r="D568" t="n">
-        <v>344</v>
-      </c>
-      <c r="E568" t="n">
-        <v>343</v>
-      </c>
-      <c r="F568" t="n">
-        <v>705.2477</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-1192030.005514164</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>343</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>343</v>
-      </c>
-      <c r="C569" t="n">
-        <v>344</v>
-      </c>
-      <c r="D569" t="n">
-        <v>344</v>
-      </c>
-      <c r="E569" t="n">
-        <v>343</v>
-      </c>
-      <c r="F569" t="n">
-        <v>5737.3038</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-1192030.005514164</v>
-      </c>
-      <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>344</v>
-      </c>
-      <c r="J569" t="n">
-        <v>343</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>344</v>
-      </c>
-      <c r="C570" t="n">
-        <v>344</v>
-      </c>
-      <c r="D570" t="n">
-        <v>344</v>
-      </c>
-      <c r="E570" t="n">
-        <v>344</v>
-      </c>
-      <c r="F570" t="n">
-        <v>245.3057</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-1192030.005514164</v>
-      </c>
-      <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>343</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>344</v>
-      </c>
-      <c r="C571" t="n">
-        <v>344</v>
-      </c>
-      <c r="D571" t="n">
-        <v>344</v>
-      </c>
-      <c r="E571" t="n">
-        <v>344</v>
-      </c>
-      <c r="F571" t="n">
-        <v>1436.3481</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-1192030.005514164</v>
-      </c>
-      <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>343</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>345</v>
-      </c>
-      <c r="C572" t="n">
-        <v>345</v>
-      </c>
-      <c r="D572" t="n">
-        <v>345</v>
-      </c>
-      <c r="E572" t="n">
-        <v>345</v>
-      </c>
-      <c r="F572" t="n">
-        <v>1</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-1192029.005514164</v>
-      </c>
-      <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>343</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>345</v>
-      </c>
-      <c r="C573" t="n">
-        <v>345</v>
-      </c>
-      <c r="D573" t="n">
-        <v>345</v>
-      </c>
-      <c r="E573" t="n">
-        <v>345</v>
-      </c>
-      <c r="F573" t="n">
-        <v>2500.2281</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-1192029.005514164</v>
-      </c>
-      <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>343</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>345</v>
-      </c>
-      <c r="C574" t="n">
-        <v>346</v>
-      </c>
-      <c r="D574" t="n">
-        <v>346</v>
-      </c>
-      <c r="E574" t="n">
-        <v>345</v>
-      </c>
-      <c r="F574" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-1186029.005514164</v>
-      </c>
-      <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>343</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>346</v>
-      </c>
-      <c r="C575" t="n">
-        <v>346</v>
-      </c>
-      <c r="D575" t="n">
-        <v>346</v>
-      </c>
-      <c r="E575" t="n">
-        <v>346</v>
-      </c>
-      <c r="F575" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-1186029.005514164</v>
-      </c>
-      <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>343</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>346</v>
-      </c>
-      <c r="C576" t="n">
-        <v>346</v>
-      </c>
-      <c r="D576" t="n">
-        <v>346</v>
-      </c>
-      <c r="E576" t="n">
-        <v>346</v>
-      </c>
-      <c r="F576" t="n">
-        <v>2004.899</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-1186029.005514164</v>
-      </c>
-      <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>346</v>
-      </c>
-      <c r="J576" t="n">
-        <v>343</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>346</v>
-      </c>
-      <c r="C577" t="n">
-        <v>346</v>
-      </c>
-      <c r="D577" t="n">
-        <v>346</v>
-      </c>
-      <c r="E577" t="n">
-        <v>346</v>
-      </c>
-      <c r="F577" t="n">
-        <v>85.02209999999999</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-1186029.005514164</v>
-      </c>
-      <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>346</v>
-      </c>
-      <c r="J577" t="n">
-        <v>343</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>347</v>
-      </c>
-      <c r="C578" t="n">
-        <v>347</v>
-      </c>
-      <c r="D578" t="n">
-        <v>347</v>
-      </c>
-      <c r="E578" t="n">
-        <v>347</v>
-      </c>
-      <c r="F578" t="n">
-        <v>9.5677</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-1186019.437814164</v>
-      </c>
-      <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>346</v>
-      </c>
-      <c r="J578" t="n">
-        <v>343</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>346</v>
-      </c>
-      <c r="C579" t="n">
-        <v>346</v>
-      </c>
-      <c r="D579" t="n">
-        <v>346</v>
-      </c>
-      <c r="E579" t="n">
-        <v>346</v>
-      </c>
-      <c r="F579" t="n">
-        <v>9.4198</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-1186028.857614164</v>
-      </c>
-      <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>347</v>
-      </c>
-      <c r="J579" t="n">
-        <v>343</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>347</v>
-      </c>
-      <c r="C580" t="n">
-        <v>347</v>
-      </c>
-      <c r="D580" t="n">
-        <v>347</v>
-      </c>
-      <c r="E580" t="n">
-        <v>347</v>
-      </c>
-      <c r="F580" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-1184028.857614164</v>
-      </c>
-      <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>346</v>
-      </c>
-      <c r="J580" t="n">
-        <v>343</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>347</v>
-      </c>
-      <c r="C581" t="n">
-        <v>347</v>
-      </c>
-      <c r="D581" t="n">
-        <v>347</v>
-      </c>
-      <c r="E581" t="n">
-        <v>347</v>
-      </c>
-      <c r="F581" t="n">
-        <v>86.0013</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-1184028.857614164</v>
-      </c>
-      <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>347</v>
-      </c>
-      <c r="J581" t="n">
-        <v>343</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>347</v>
-      </c>
-      <c r="C582" t="n">
-        <v>348</v>
-      </c>
-      <c r="D582" t="n">
-        <v>348</v>
-      </c>
-      <c r="E582" t="n">
-        <v>347</v>
-      </c>
-      <c r="F582" t="n">
-        <v>7773.553</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>343</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>348</v>
-      </c>
-      <c r="C583" t="n">
-        <v>348</v>
-      </c>
-      <c r="D583" t="n">
-        <v>348</v>
-      </c>
-      <c r="E583" t="n">
-        <v>348</v>
-      </c>
-      <c r="F583" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>348</v>
-      </c>
-      <c r="J583" t="n">
-        <v>343</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>348</v>
-      </c>
-      <c r="C584" t="n">
-        <v>348</v>
-      </c>
-      <c r="D584" t="n">
-        <v>348</v>
-      </c>
-      <c r="E584" t="n">
-        <v>348</v>
-      </c>
-      <c r="F584" t="n">
-        <v>90.3899</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>348</v>
-      </c>
-      <c r="J584" t="n">
-        <v>343</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>348</v>
-      </c>
-      <c r="C585" t="n">
-        <v>348</v>
-      </c>
-      <c r="D585" t="n">
-        <v>348</v>
-      </c>
-      <c r="E585" t="n">
-        <v>348</v>
-      </c>
-      <c r="F585" t="n">
-        <v>9</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>348</v>
-      </c>
-      <c r="J585" t="n">
-        <v>343</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>348</v>
-      </c>
-      <c r="C586" t="n">
-        <v>348</v>
-      </c>
-      <c r="D586" t="n">
-        <v>348</v>
-      </c>
-      <c r="E586" t="n">
-        <v>348</v>
-      </c>
-      <c r="F586" t="n">
-        <v>261.6082</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>348</v>
-      </c>
-      <c r="J586" t="n">
-        <v>343</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>347</v>
-      </c>
-      <c r="C587" t="n">
-        <v>348</v>
-      </c>
-      <c r="D587" t="n">
-        <v>348</v>
-      </c>
-      <c r="E587" t="n">
-        <v>347</v>
-      </c>
-      <c r="F587" t="n">
-        <v>1340.5133</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>348</v>
-      </c>
-      <c r="J587" t="n">
-        <v>343</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>348</v>
-      </c>
-      <c r="C588" t="n">
-        <v>348</v>
-      </c>
-      <c r="D588" t="n">
-        <v>348</v>
-      </c>
-      <c r="E588" t="n">
-        <v>348</v>
-      </c>
-      <c r="F588" t="n">
-        <v>2911.6551</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-1176255.304614164</v>
-      </c>
-      <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>348</v>
-      </c>
-      <c r="J588" t="n">
-        <v>343</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>346</v>
-      </c>
-      <c r="C589" t="n">
-        <v>346</v>
-      </c>
-      <c r="D589" t="n">
-        <v>346</v>
-      </c>
-      <c r="E589" t="n">
-        <v>346</v>
-      </c>
-      <c r="F589" t="n">
-        <v>447.4209</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-1176702.725514164</v>
-      </c>
-      <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>348</v>
-      </c>
-      <c r="J589" t="n">
-        <v>343</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>346</v>
-      </c>
-      <c r="C590" t="n">
-        <v>348</v>
-      </c>
-      <c r="D590" t="n">
-        <v>348</v>
-      </c>
-      <c r="E590" t="n">
-        <v>346</v>
-      </c>
-      <c r="F590" t="n">
-        <v>12.5775275862069</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-1176690.147986578</v>
-      </c>
-      <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>346</v>
-      </c>
-      <c r="J590" t="n">
-        <v>343</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>348</v>
-      </c>
-      <c r="C591" t="n">
-        <v>348</v>
-      </c>
-      <c r="D591" t="n">
-        <v>348</v>
-      </c>
-      <c r="E591" t="n">
-        <v>348</v>
-      </c>
-      <c r="F591" t="n">
-        <v>7.043103448275862</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-1176690.147986578</v>
-      </c>
-      <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>348</v>
-      </c>
-      <c r="J591" t="n">
-        <v>343</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>348</v>
-      </c>
-      <c r="C592" t="n">
-        <v>348</v>
-      </c>
-      <c r="D592" t="n">
-        <v>348</v>
-      </c>
-      <c r="E592" t="n">
-        <v>348</v>
-      </c>
-      <c r="F592" t="n">
-        <v>364.2194</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-1176690.147986578</v>
-      </c>
-      <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>348</v>
-      </c>
-      <c r="J592" t="n">
-        <v>343</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>348</v>
-      </c>
-      <c r="C593" t="n">
-        <v>348</v>
-      </c>
-      <c r="D593" t="n">
-        <v>348</v>
-      </c>
-      <c r="E593" t="n">
-        <v>348</v>
-      </c>
-      <c r="F593" t="n">
-        <v>2231.5102</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-1176690.147986578</v>
-      </c>
-      <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>348</v>
-      </c>
-      <c r="J593" t="n">
-        <v>343</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>349</v>
-      </c>
-      <c r="C594" t="n">
-        <v>349</v>
-      </c>
-      <c r="D594" t="n">
-        <v>349</v>
-      </c>
-      <c r="E594" t="n">
-        <v>349</v>
-      </c>
-      <c r="F594" t="n">
-        <v>57</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-1176633.147986578</v>
-      </c>
-      <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>348</v>
-      </c>
-      <c r="J594" t="n">
-        <v>343</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>349</v>
-      </c>
-      <c r="C595" t="n">
-        <v>349</v>
-      </c>
-      <c r="D595" t="n">
-        <v>349</v>
-      </c>
-      <c r="E595" t="n">
-        <v>349</v>
-      </c>
-      <c r="F595" t="n">
-        <v>1686.4527</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-1176633.147986578</v>
-      </c>
-      <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>349</v>
-      </c>
-      <c r="J595" t="n">
-        <v>343</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>348</v>
-      </c>
-      <c r="C596" t="n">
-        <v>348</v>
-      </c>
-      <c r="D596" t="n">
-        <v>348</v>
-      </c>
-      <c r="E596" t="n">
-        <v>348</v>
-      </c>
-      <c r="F596" t="n">
-        <v>1656.2161</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-1178289.364086578</v>
-      </c>
-      <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>349</v>
-      </c>
-      <c r="J596" t="n">
-        <v>343</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>349</v>
-      </c>
-      <c r="C597" t="n">
-        <v>349</v>
-      </c>
-      <c r="D597" t="n">
-        <v>349</v>
-      </c>
-      <c r="E597" t="n">
-        <v>349</v>
-      </c>
-      <c r="F597" t="n">
-        <v>59.9025</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-1178229.461586578</v>
-      </c>
-      <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>348</v>
-      </c>
-      <c r="J597" t="n">
-        <v>343</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>349</v>
-      </c>
-      <c r="C598" t="n">
-        <v>349</v>
-      </c>
-      <c r="D598" t="n">
-        <v>349</v>
-      </c>
-      <c r="E598" t="n">
-        <v>347</v>
-      </c>
-      <c r="F598" t="n">
-        <v>3019.6874</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-1178229.461586578</v>
-      </c>
-      <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>349</v>
-      </c>
-      <c r="J598" t="n">
-        <v>343</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>349</v>
-      </c>
-      <c r="C599" t="n">
-        <v>349</v>
-      </c>
-      <c r="D599" t="n">
-        <v>349</v>
-      </c>
-      <c r="E599" t="n">
-        <v>349</v>
-      </c>
-      <c r="F599" t="n">
-        <v>4008.103</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-1178229.461586578</v>
-      </c>
-      <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="n">
-        <v>349</v>
-      </c>
-      <c r="J599" t="n">
-        <v>343</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>349</v>
-      </c>
-      <c r="C600" t="n">
-        <v>349</v>
-      </c>
-      <c r="D600" t="n">
-        <v>349</v>
-      </c>
-      <c r="E600" t="n">
-        <v>349</v>
-      </c>
-      <c r="F600" t="n">
-        <v>3522.5696</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-1178229.461586578</v>
-      </c>
-      <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="n">
-        <v>349</v>
-      </c>
-      <c r="J600" t="n">
-        <v>343</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>349</v>
-      </c>
-      <c r="C601" t="n">
-        <v>349</v>
-      </c>
-      <c r="D601" t="n">
-        <v>349</v>
-      </c>
-      <c r="E601" t="n">
-        <v>349</v>
-      </c>
-      <c r="F601" t="n">
-        <v>3928.4454</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-1178229.461586578</v>
-      </c>
-      <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>349</v>
-      </c>
-      <c r="J601" t="n">
-        <v>343</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>349</v>
-      </c>
-      <c r="C602" t="n">
-        <v>350</v>
-      </c>
-      <c r="D602" t="n">
-        <v>350</v>
-      </c>
-      <c r="E602" t="n">
-        <v>349</v>
-      </c>
-      <c r="F602" t="n">
-        <v>2811.0135</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-1175418.448086578</v>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>349</v>
-      </c>
-      <c r="J602" t="n">
-        <v>343</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>350</v>
-      </c>
-      <c r="C603" t="n">
-        <v>350</v>
-      </c>
-      <c r="D603" t="n">
-        <v>350</v>
-      </c>
-      <c r="E603" t="n">
-        <v>349</v>
-      </c>
-      <c r="F603" t="n">
-        <v>1582.1338</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-1175418.448086578</v>
-      </c>
-      <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>350</v>
-      </c>
-      <c r="J603" t="n">
-        <v>343</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>350</v>
-      </c>
-      <c r="C604" t="n">
-        <v>350</v>
-      </c>
-      <c r="D604" t="n">
-        <v>350</v>
-      </c>
-      <c r="E604" t="n">
-        <v>350</v>
-      </c>
-      <c r="F604" t="n">
-        <v>815.3114285714286</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-1175418.448086578</v>
-      </c>
-      <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>350</v>
-      </c>
-      <c r="J604" t="n">
-        <v>343</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>348</v>
-      </c>
-      <c r="C605" t="n">
-        <v>348</v>
-      </c>
-      <c r="D605" t="n">
-        <v>348</v>
-      </c>
-      <c r="E605" t="n">
-        <v>348</v>
-      </c>
-      <c r="F605" t="n">
-        <v>8534.495999999999</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-1183952.944086578</v>
-      </c>
-      <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>350</v>
-      </c>
-      <c r="J605" t="n">
-        <v>343</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>349</v>
-      </c>
-      <c r="C606" t="n">
-        <v>349</v>
-      </c>
-      <c r="D606" t="n">
-        <v>349</v>
-      </c>
-      <c r="E606" t="n">
-        <v>349</v>
-      </c>
-      <c r="F606" t="n">
-        <v>1481</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-1182471.944086578</v>
-      </c>
-      <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>348</v>
-      </c>
-      <c r="J606" t="n">
-        <v>343</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>348</v>
-      </c>
-      <c r="C607" t="n">
-        <v>348</v>
-      </c>
-      <c r="D607" t="n">
-        <v>348</v>
-      </c>
-      <c r="E607" t="n">
-        <v>348</v>
-      </c>
-      <c r="F607" t="n">
-        <v>1649.0353</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-1184120.979386578</v>
-      </c>
-      <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>349</v>
-      </c>
-      <c r="J607" t="n">
-        <v>343</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>348</v>
-      </c>
-      <c r="C608" t="n">
-        <v>347</v>
-      </c>
-      <c r="D608" t="n">
-        <v>348</v>
-      </c>
-      <c r="E608" t="n">
-        <v>347</v>
-      </c>
-      <c r="F608" t="n">
-        <v>1310.9412</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-1185431.920586578</v>
-      </c>
-      <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>348</v>
-      </c>
-      <c r="J608" t="n">
-        <v>343</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>349</v>
-      </c>
-      <c r="C609" t="n">
-        <v>349</v>
-      </c>
-      <c r="D609" t="n">
-        <v>349</v>
-      </c>
-      <c r="E609" t="n">
-        <v>349</v>
-      </c>
-      <c r="F609" t="n">
-        <v>1435</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-1183996.920586578</v>
-      </c>
-      <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>347</v>
-      </c>
-      <c r="J609" t="n">
-        <v>343</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>347</v>
-      </c>
-      <c r="C610" t="n">
-        <v>348</v>
-      </c>
-      <c r="D610" t="n">
-        <v>348</v>
-      </c>
-      <c r="E610" t="n">
-        <v>347</v>
-      </c>
-      <c r="F610" t="n">
-        <v>934.6091</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-1184931.529686578</v>
-      </c>
-      <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>349</v>
-      </c>
-      <c r="J610" t="n">
-        <v>343</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>348</v>
-      </c>
-      <c r="C611" t="n">
-        <v>349</v>
-      </c>
-      <c r="D611" t="n">
-        <v>349</v>
-      </c>
-      <c r="E611" t="n">
-        <v>348</v>
-      </c>
-      <c r="F611" t="n">
-        <v>1181.9394</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-1183749.590286578</v>
-      </c>
-      <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>348</v>
-      </c>
-      <c r="J611" t="n">
-        <v>343</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>349</v>
-      </c>
-      <c r="C612" t="n">
-        <v>349</v>
-      </c>
-      <c r="D612" t="n">
-        <v>349</v>
-      </c>
-      <c r="E612" t="n">
-        <v>349</v>
-      </c>
-      <c r="F612" t="n">
-        <v>12383.8985</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-1183749.590286578</v>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>349</v>
-      </c>
-      <c r="J612" t="n">
-        <v>343</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>350</v>
-      </c>
-      <c r="C613" t="n">
-        <v>350</v>
-      </c>
-      <c r="D613" t="n">
-        <v>350</v>
-      </c>
-      <c r="E613" t="n">
-        <v>350</v>
-      </c>
-      <c r="F613" t="n">
-        <v>538</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-1183211.590286578</v>
-      </c>
-      <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>349</v>
-      </c>
-      <c r="J613" t="n">
-        <v>343</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>349</v>
-      </c>
-      <c r="C614" t="n">
-        <v>349</v>
-      </c>
-      <c r="D614" t="n">
-        <v>349</v>
-      </c>
-      <c r="E614" t="n">
-        <v>349</v>
-      </c>
-      <c r="F614" t="n">
-        <v>4735.7857</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-1187947.375986578</v>
-      </c>
-      <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>350</v>
-      </c>
-      <c r="J614" t="n">
-        <v>343</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>349</v>
-      </c>
-      <c r="C615" t="n">
-        <v>347</v>
-      </c>
-      <c r="D615" t="n">
-        <v>349</v>
-      </c>
-      <c r="E615" t="n">
-        <v>347</v>
-      </c>
-      <c r="F615" t="n">
-        <v>13026.4733</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-1200973.849286578</v>
-      </c>
-      <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>349</v>
-      </c>
-      <c r="J615" t="n">
-        <v>343</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>347</v>
-      </c>
-      <c r="C616" t="n">
-        <v>347</v>
-      </c>
-      <c r="D616" t="n">
-        <v>347</v>
-      </c>
-      <c r="E616" t="n">
-        <v>347</v>
-      </c>
-      <c r="F616" t="n">
-        <v>1677.0287</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-1200973.849286578</v>
-      </c>
-      <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>347</v>
-      </c>
-      <c r="J616" t="n">
-        <v>343</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>346</v>
-      </c>
-      <c r="C617" t="n">
-        <v>346</v>
-      </c>
-      <c r="D617" t="n">
-        <v>346</v>
-      </c>
-      <c r="E617" t="n">
-        <v>346</v>
-      </c>
-      <c r="F617" t="n">
-        <v>460.7456</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-1201434.594886578</v>
-      </c>
-      <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>347</v>
-      </c>
-      <c r="J617" t="n">
-        <v>343</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>346</v>
-      </c>
-      <c r="C618" t="n">
-        <v>346</v>
-      </c>
-      <c r="D618" t="n">
-        <v>346</v>
-      </c>
-      <c r="E618" t="n">
-        <v>346</v>
-      </c>
-      <c r="F618" t="n">
-        <v>41.6789</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-1201434.594886578</v>
-      </c>
-      <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>346</v>
-      </c>
-      <c r="J618" t="n">
-        <v>343</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>346</v>
-      </c>
-      <c r="C619" t="n">
-        <v>345</v>
-      </c>
-      <c r="D619" t="n">
-        <v>346</v>
-      </c>
-      <c r="E619" t="n">
-        <v>345</v>
-      </c>
-      <c r="F619" t="n">
-        <v>317.265</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-1201751.859886578</v>
-      </c>
-      <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>346</v>
-      </c>
-      <c r="J619" t="n">
-        <v>343</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21273,13 +20857,13 @@
         <v>-1201423.939086578</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>345</v>
       </c>
       <c r="J620" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21314,13 +20898,13 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>346</v>
       </c>
       <c r="J621" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21355,13 +20939,13 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>345</v>
       </c>
       <c r="J622" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21396,13 +20980,13 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>345</v>
       </c>
       <c r="J623" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21437,13 +21021,13 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>346</v>
       </c>
       <c r="J624" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21478,13 +21062,13 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>346</v>
       </c>
       <c r="J625" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21519,13 +21103,13 @@
         <v>-1206143.389086578</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>346</v>
       </c>
       <c r="J626" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21560,13 +21144,11 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21601,13 +21183,11 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21642,13 +21222,11 @@
         <v>-1183695.595986578</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21683,13 +21261,11 @@
         <v>-1183695.595986578</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21724,13 +21300,11 @@
         <v>-1175756.194086578</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
-      </c>
-      <c r="I631" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21765,13 +21339,11 @@
         <v>-1178576.373586578</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>349</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21810,7 +21382,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21849,7 +21421,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21888,7 +21460,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21927,7 +21499,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21966,7 +21538,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22001,13 +21573,11 @@
         <v>-1141449.899086578</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22042,13 +21612,11 @@
         <v>-1141449.899086578</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22083,13 +21651,11 @@
         <v>-1141449.899086578</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22124,13 +21690,11 @@
         <v>-1141449.899086578</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22165,13 +21729,11 @@
         <v>-1141449.899086578</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22206,13 +21768,11 @@
         <v>-1138440.618586578</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22247,13 +21807,11 @@
         <v>-1138440.618586578</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22292,7 +21850,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22331,7 +21889,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22370,7 +21928,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22409,7 +21967,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22448,7 +22006,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22487,7 +22045,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22526,7 +22084,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22565,7 +22123,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22604,7 +22162,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22643,7 +22201,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22682,7 +22240,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22721,7 +22279,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22760,7 +22318,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22799,7 +22357,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22838,7 +22396,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22877,7 +22435,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22916,7 +22474,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22955,7 +22513,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22994,7 +22552,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23029,13 +22587,13 @@
         <v>-1170341.483286578</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>345</v>
       </c>
       <c r="J664" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23070,13 +22628,13 @@
         <v>-1167855.103613983</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>342</v>
       </c>
       <c r="J665" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23111,13 +22669,13 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>343</v>
       </c>
       <c r="J666" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23152,13 +22710,13 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>342</v>
       </c>
       <c r="J667" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23193,13 +22751,13 @@
         <v>-1162633.714836302</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>342</v>
       </c>
       <c r="J668" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23234,13 +22792,13 @@
         <v>-1162513.714936302</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>344</v>
       </c>
       <c r="J669" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23275,13 +22833,13 @@
         <v>-1162473.714836302</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>345</v>
       </c>
       <c r="J670" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23316,13 +22874,13 @@
         <v>-1161862.700536302</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>346</v>
       </c>
       <c r="J671" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23357,13 +22915,13 @@
         <v>-1161862.700536302</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>348</v>
       </c>
       <c r="J672" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23398,13 +22956,13 @@
         <v>-1161819.700536302</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>348</v>
       </c>
       <c r="J673" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23439,13 +22997,13 @@
         <v>-1161855.511336302</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>349</v>
       </c>
       <c r="J674" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23480,13 +23038,13 @@
         <v>-1161895.511336302</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>347</v>
       </c>
       <c r="J675" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23521,13 +23079,13 @@
         <v>-1162865.511236302</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>346</v>
       </c>
       <c r="J676" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23562,13 +23120,13 @@
         <v>-1165515.511236302</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>345</v>
       </c>
       <c r="J677" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23603,13 +23161,13 @@
         <v>-1165515.511236302</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>344</v>
       </c>
       <c r="J678" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23644,13 +23202,13 @@
         <v>-1166103.424336302</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>344</v>
       </c>
       <c r="J679" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23685,11 +23243,13 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>343</v>
+      </c>
       <c r="J680" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23724,11 +23284,13 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>344</v>
+      </c>
       <c r="J681" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23763,11 +23325,13 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>344</v>
+      </c>
       <c r="J682" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23802,11 +23366,13 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>344</v>
+      </c>
       <c r="J683" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23841,11 +23407,13 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>344</v>
+      </c>
       <c r="J684" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23880,11 +23448,13 @@
         <v>-1162660.609236302</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>344</v>
+      </c>
       <c r="J685" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23919,11 +23489,13 @@
         <v>-1162984.269036302</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>345</v>
+      </c>
       <c r="J686" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23958,11 +23530,13 @@
         <v>-1163111.864136302</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>344</v>
+      </c>
       <c r="J687" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23997,11 +23571,13 @@
         <v>-1162893.011536302</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>343</v>
+      </c>
       <c r="J688" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24036,11 +23612,13 @@
         <v>-1208410.234936302</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>344</v>
+      </c>
       <c r="J689" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24075,11 +23653,13 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>340</v>
+      </c>
       <c r="J690" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24114,11 +23694,13 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>344</v>
+      </c>
       <c r="J691" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24153,11 +23735,13 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>344</v>
+      </c>
       <c r="J692" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24192,11 +23776,13 @@
         <v>-1197060.526136302</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>344</v>
+      </c>
       <c r="J693" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24231,11 +23817,13 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>345</v>
+      </c>
       <c r="J694" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24270,11 +23858,13 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>346</v>
+      </c>
       <c r="J695" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24309,11 +23899,13 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>346</v>
+      </c>
       <c r="J696" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24348,11 +23940,13 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>347</v>
+      </c>
       <c r="J697" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24391,7 +23985,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24430,7 +24024,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24465,11 +24059,13 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>343</v>
+      </c>
       <c r="J700" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24504,11 +24100,13 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>345</v>
+      </c>
       <c r="J701" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24547,7 +24145,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24586,7 +24184,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24625,7 +24223,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24664,7 +24262,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24703,7 +24301,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24738,11 +24336,13 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>343</v>
+      </c>
       <c r="J707" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24777,11 +24377,13 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>342</v>
+      </c>
       <c r="J708" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24816,11 +24418,13 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>342</v>
+      </c>
       <c r="J709" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24855,11 +24459,13 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>341</v>
+      </c>
       <c r="J710" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24894,11 +24500,13 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>341</v>
+      </c>
       <c r="J711" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24933,11 +24541,13 @@
         <v>-1198524.081136302</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>341</v>
+      </c>
       <c r="J712" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24976,7 +24586,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25015,7 +24625,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25054,7 +24664,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25093,7 +24703,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25132,7 +24742,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25167,11 +24777,13 @@
         <v>-1197062.112136302</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>344</v>
+      </c>
       <c r="J718" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25210,7 +24822,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25249,7 +24861,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25288,7 +24900,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25327,7 +24939,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25366,7 +24978,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25405,7 +25017,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25444,7 +25056,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25483,7 +25095,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25522,7 +25134,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25561,7 +25173,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25600,7 +25212,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25635,13 +25247,11 @@
         <v>-1200400.634336302</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25676,13 +25286,11 @@
         <v>-1200399.634336302</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25717,13 +25325,11 @@
         <v>-1200302.732602197</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25762,7 +25368,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25801,7 +25407,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25836,13 +25442,11 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25877,13 +25481,11 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25918,13 +25520,11 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25959,13 +25559,11 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26000,13 +25598,11 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26045,7 +25641,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26080,13 +25676,11 @@
         <v>-1201833.734002197</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
-      </c>
-      <c r="I741" t="n">
-        <v>344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26125,7 +25719,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26164,7 +25758,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26203,7 +25797,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26242,7 +25836,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26281,7 +25875,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26320,7 +25914,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26359,7 +25953,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26398,7 +25992,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26437,7 +26031,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26450,6 +26044,6 @@
       <c r="M750" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-26 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>66516.51890000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>66027.17160000003</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>66545.20040000003</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>65917.22950000003</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>65917.22950000003</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>63145.77300000003</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>63145.77300000003</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>64449.22010000003</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>64589.95950000003</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>64704.76680000003</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>65110.90860000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>72952.91450000003</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>64838.16590000003</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>79038.19570737708</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>77672.04160737708</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>63888.91700737708</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>63858.13660737708</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>63998.22770737707</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27703.20630737708</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>26414.12870737708</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>26414.12870737708</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26415.12870737708</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>26415.12870737708</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26811.60000737708</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>17557.05100737709</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17564.36510737709</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>17561.36510737709</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>17560.36510737709</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>17063.10350737708</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>17063.10350737708</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>17083.00350737709</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>16991.13840737709</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>12202.02690737709</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>11011.64700737709</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6249.783107377087</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6858.382207377087</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>11319.64420619055</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>11279.77800619055</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>20552.6848443928</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>26880.7794443928</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>32581.55888943946</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>35446.23048943946</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>46932.13158943946</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>29479.91698943946</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>31521.70508943946</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>29686.41998943946</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>33260.41998943946</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>32254.01058943945</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>35341.39738943946</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>29581.39738943946</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>30731.39738943946</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>18291.86718943946</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>18291.86718943946</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-28139.32521056054</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-28139.32521056054</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-28119.32521056054</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-28140.59881056054</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-28140.59881056054</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-12713.78044671873</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-11482.61234671873</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11482.61234671873</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-8237.910346718727</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-85025.4992467187</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-421980.3826746673</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-412970.7928746673</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-417001.7008746673</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-397625.5340299379</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -20779,14 +20779,10 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>346</v>
-      </c>
-      <c r="J618" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
@@ -20816,3020 +20812,2492 @@
         <v>-1201751.859886578</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>345</v>
+      </c>
+      <c r="C620" t="n">
         <v>346</v>
       </c>
-      <c r="J619" t="n">
+      <c r="D620" t="n">
         <v>346</v>
       </c>
-      <c r="K619" t="inlineStr">
+      <c r="E620" t="n">
+        <v>345</v>
+      </c>
+      <c r="F620" t="n">
+        <v>327.9208</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-1201423.939086578</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>346</v>
+      </c>
+      <c r="C621" t="n">
+        <v>345</v>
+      </c>
+      <c r="D621" t="n">
+        <v>346</v>
+      </c>
+      <c r="E621" t="n">
+        <v>345</v>
+      </c>
+      <c r="F621" t="n">
+        <v>17854.3195</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-1219278.258586578</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>345</v>
+      </c>
+      <c r="C622" t="n">
+        <v>345</v>
+      </c>
+      <c r="D622" t="n">
+        <v>345</v>
+      </c>
+      <c r="E622" t="n">
+        <v>345</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-1219278.258586578</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>346</v>
+      </c>
+      <c r="C623" t="n">
+        <v>346</v>
+      </c>
+      <c r="D623" t="n">
+        <v>346</v>
+      </c>
+      <c r="E623" t="n">
+        <v>346</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1508.066</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-1217770.192586578</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>345</v>
+      </c>
+      <c r="C624" t="n">
+        <v>346</v>
+      </c>
+      <c r="D624" t="n">
+        <v>346</v>
+      </c>
+      <c r="E624" t="n">
+        <v>345</v>
+      </c>
+      <c r="F624" t="n">
+        <v>425</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-1217770.192586578</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>346</v>
+      </c>
+      <c r="C625" t="n">
+        <v>346</v>
+      </c>
+      <c r="D625" t="n">
+        <v>346</v>
+      </c>
+      <c r="E625" t="n">
+        <v>346</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2280</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-1217770.192586578</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>346</v>
+      </c>
+      <c r="C626" t="n">
+        <v>348</v>
+      </c>
+      <c r="D626" t="n">
+        <v>348</v>
+      </c>
+      <c r="E626" t="n">
+        <v>346</v>
+      </c>
+      <c r="F626" t="n">
+        <v>11626.8035</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-1206143.389086578</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>346</v>
+      </c>
+      <c r="C627" t="n">
+        <v>346</v>
+      </c>
+      <c r="D627" t="n">
+        <v>346</v>
+      </c>
+      <c r="E627" t="n">
+        <v>346</v>
+      </c>
+      <c r="F627" t="n">
+        <v>66</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-1206209.389086578</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>346</v>
+      </c>
+      <c r="C628" t="n">
+        <v>346</v>
+      </c>
+      <c r="D628" t="n">
+        <v>346</v>
+      </c>
+      <c r="E628" t="n">
+        <v>346</v>
+      </c>
+      <c r="F628" t="n">
+        <v>479.7774</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-1206209.389086578</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>348</v>
+      </c>
+      <c r="C629" t="n">
+        <v>348</v>
+      </c>
+      <c r="D629" t="n">
+        <v>348</v>
+      </c>
+      <c r="E629" t="n">
+        <v>348</v>
+      </c>
+      <c r="F629" t="n">
+        <v>22513.7931</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-1183695.595986578</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>348</v>
+      </c>
+      <c r="C630" t="n">
+        <v>348</v>
+      </c>
+      <c r="D630" t="n">
+        <v>348</v>
+      </c>
+      <c r="E630" t="n">
+        <v>348</v>
+      </c>
+      <c r="F630" t="n">
+        <v>7450</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-1183695.595986578</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>348</v>
+      </c>
+      <c r="C631" t="n">
+        <v>349</v>
+      </c>
+      <c r="D631" t="n">
+        <v>349</v>
+      </c>
+      <c r="E631" t="n">
+        <v>348</v>
+      </c>
+      <c r="F631" t="n">
+        <v>7939.4019</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-1175756.194086578</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>348</v>
+      </c>
+      <c r="C632" t="n">
+        <v>348</v>
+      </c>
+      <c r="D632" t="n">
+        <v>348</v>
+      </c>
+      <c r="E632" t="n">
+        <v>348</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2820.1795</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-1178576.373586578</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>348</v>
+      </c>
+      <c r="C633" t="n">
+        <v>350</v>
+      </c>
+      <c r="D633" t="n">
+        <v>350</v>
+      </c>
+      <c r="E633" t="n">
+        <v>348</v>
+      </c>
+      <c r="F633" t="n">
+        <v>48488.5917</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-1130087.781886578</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>350</v>
+      </c>
+      <c r="C634" t="n">
+        <v>350</v>
+      </c>
+      <c r="D634" t="n">
+        <v>350</v>
+      </c>
+      <c r="E634" t="n">
+        <v>350</v>
+      </c>
+      <c r="F634" t="n">
+        <v>286.6915</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-1130087.781886578</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>350</v>
+      </c>
+      <c r="C635" t="n">
+        <v>349</v>
+      </c>
+      <c r="D635" t="n">
+        <v>350</v>
+      </c>
+      <c r="E635" t="n">
+        <v>349</v>
+      </c>
+      <c r="F635" t="n">
+        <v>11370.8514</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-1141458.633286578</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>349</v>
+      </c>
+      <c r="C636" t="n">
+        <v>349</v>
+      </c>
+      <c r="D636" t="n">
+        <v>349</v>
+      </c>
+      <c r="E636" t="n">
+        <v>349</v>
+      </c>
+      <c r="F636" t="n">
+        <v>100</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-1141458.633286578</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>350</v>
+      </c>
+      <c r="C637" t="n">
+        <v>350</v>
+      </c>
+      <c r="D637" t="n">
+        <v>350</v>
+      </c>
+      <c r="E637" t="n">
+        <v>350</v>
+      </c>
+      <c r="F637" t="n">
+        <v>8.7342</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>350</v>
+      </c>
+      <c r="C638" t="n">
+        <v>350</v>
+      </c>
+      <c r="D638" t="n">
+        <v>350</v>
+      </c>
+      <c r="E638" t="n">
+        <v>350</v>
+      </c>
+      <c r="F638" t="n">
+        <v>977.3541</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>350</v>
+      </c>
+      <c r="C639" t="n">
+        <v>350</v>
+      </c>
+      <c r="D639" t="n">
+        <v>350</v>
+      </c>
+      <c r="E639" t="n">
+        <v>350</v>
+      </c>
+      <c r="F639" t="n">
+        <v>11251.4069</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>350</v>
+      </c>
+      <c r="C640" t="n">
+        <v>350</v>
+      </c>
+      <c r="D640" t="n">
+        <v>350</v>
+      </c>
+      <c r="E640" t="n">
+        <v>350</v>
+      </c>
+      <c r="F640" t="n">
+        <v>130.1898</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>350</v>
+      </c>
+      <c r="C641" t="n">
+        <v>350</v>
+      </c>
+      <c r="D641" t="n">
+        <v>350</v>
+      </c>
+      <c r="E641" t="n">
+        <v>350</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1524.5606</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>350</v>
+      </c>
+      <c r="C642" t="n">
+        <v>350</v>
+      </c>
+      <c r="D642" t="n">
+        <v>350</v>
+      </c>
+      <c r="E642" t="n">
+        <v>350</v>
+      </c>
+      <c r="F642" t="n">
+        <v>3159.2451</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-1141449.899086578</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>350</v>
+      </c>
+      <c r="C643" t="n">
+        <v>351</v>
+      </c>
+      <c r="D643" t="n">
+        <v>351</v>
+      </c>
+      <c r="E643" t="n">
+        <v>350</v>
+      </c>
+      <c r="F643" t="n">
+        <v>3009.2805</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-1138440.618586578</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>351</v>
+      </c>
+      <c r="C644" t="n">
+        <v>351</v>
+      </c>
+      <c r="D644" t="n">
+        <v>351</v>
+      </c>
+      <c r="E644" t="n">
+        <v>351</v>
+      </c>
+      <c r="F644" t="n">
+        <v>2251.9298</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-1138440.618586578</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>351</v>
+      </c>
+      <c r="C645" t="n">
+        <v>351</v>
+      </c>
+      <c r="D645" t="n">
+        <v>351</v>
+      </c>
+      <c r="E645" t="n">
+        <v>351</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2499.6808</v>
+      </c>
+      <c r="G645" t="n">
+        <v>-1138440.618586578</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>351</v>
+      </c>
+      <c r="C646" t="n">
+        <v>351</v>
+      </c>
+      <c r="D646" t="n">
+        <v>351</v>
+      </c>
+      <c r="E646" t="n">
+        <v>351</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1194.4174</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-1138440.618586578</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>351</v>
+      </c>
+      <c r="C647" t="n">
+        <v>351</v>
+      </c>
+      <c r="D647" t="n">
+        <v>351</v>
+      </c>
+      <c r="E647" t="n">
+        <v>351</v>
+      </c>
+      <c r="F647" t="n">
+        <v>18507.5875</v>
+      </c>
+      <c r="G647" t="n">
+        <v>-1138440.618586578</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>352</v>
+      </c>
+      <c r="C648" t="n">
+        <v>352</v>
+      </c>
+      <c r="D648" t="n">
+        <v>352</v>
+      </c>
+      <c r="E648" t="n">
+        <v>352</v>
+      </c>
+      <c r="F648" t="n">
+        <v>5665.5977</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-1132775.020886578</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>352</v>
+      </c>
+      <c r="C649" t="n">
+        <v>352</v>
+      </c>
+      <c r="D649" t="n">
+        <v>352</v>
+      </c>
+      <c r="E649" t="n">
+        <v>352</v>
+      </c>
+      <c r="F649" t="n">
+        <v>35</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-1132775.020886578</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>352</v>
+      </c>
+      <c r="C650" t="n">
+        <v>352</v>
+      </c>
+      <c r="D650" t="n">
+        <v>352</v>
+      </c>
+      <c r="E650" t="n">
+        <v>352</v>
+      </c>
+      <c r="F650" t="n">
+        <v>151.3494</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-1132775.020886578</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>352</v>
+      </c>
+      <c r="C651" t="n">
+        <v>352</v>
+      </c>
+      <c r="D651" t="n">
+        <v>352</v>
+      </c>
+      <c r="E651" t="n">
+        <v>352</v>
+      </c>
+      <c r="F651" t="n">
+        <v>6750.084</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-1132775.020886578</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>352</v>
+      </c>
+      <c r="C652" t="n">
+        <v>350</v>
+      </c>
+      <c r="D652" t="n">
+        <v>353</v>
+      </c>
+      <c r="E652" t="n">
+        <v>350</v>
+      </c>
+      <c r="F652" t="n">
+        <v>19118.2296</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-1151893.250486578</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>352</v>
+      </c>
+      <c r="C653" t="n">
+        <v>352</v>
+      </c>
+      <c r="D653" t="n">
+        <v>352</v>
+      </c>
+      <c r="E653" t="n">
+        <v>352</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1332.6562</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-1150560.594286578</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>351</v>
+      </c>
+      <c r="C654" t="n">
+        <v>351</v>
+      </c>
+      <c r="D654" t="n">
+        <v>351</v>
+      </c>
+      <c r="E654" t="n">
+        <v>351</v>
+      </c>
+      <c r="F654" t="n">
+        <v>741.5883</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-1151302.182586578</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>351</v>
+      </c>
+      <c r="C655" t="n">
+        <v>350</v>
+      </c>
+      <c r="D655" t="n">
+        <v>351</v>
+      </c>
+      <c r="E655" t="n">
+        <v>350</v>
+      </c>
+      <c r="F655" t="n">
+        <v>4745.4961</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-1156047.678686578</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>350</v>
+      </c>
+      <c r="C656" t="n">
+        <v>350</v>
+      </c>
+      <c r="D656" t="n">
+        <v>351</v>
+      </c>
+      <c r="E656" t="n">
+        <v>350</v>
+      </c>
+      <c r="F656" t="n">
+        <v>31272.897</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-1156047.678686578</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>352</v>
+      </c>
+      <c r="C657" t="n">
+        <v>352</v>
+      </c>
+      <c r="D657" t="n">
+        <v>352</v>
+      </c>
+      <c r="E657" t="n">
+        <v>352</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2335.9558</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-1153711.722886578</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>352</v>
+      </c>
+      <c r="C658" t="n">
+        <v>352</v>
+      </c>
+      <c r="D658" t="n">
+        <v>352</v>
+      </c>
+      <c r="E658" t="n">
+        <v>352</v>
+      </c>
+      <c r="F658" t="n">
+        <v>237.106</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-1153711.722886578</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>352</v>
+      </c>
+      <c r="C659" t="n">
+        <v>353</v>
+      </c>
+      <c r="D659" t="n">
+        <v>353</v>
+      </c>
+      <c r="E659" t="n">
+        <v>352</v>
+      </c>
+      <c r="F659" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-1148611.722886578</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>353</v>
+      </c>
+      <c r="C660" t="n">
+        <v>353</v>
+      </c>
+      <c r="D660" t="n">
+        <v>353</v>
+      </c>
+      <c r="E660" t="n">
+        <v>353</v>
+      </c>
+      <c r="F660" t="n">
+        <v>14.3543</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-1148611.722886578</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>351</v>
+      </c>
+      <c r="C661" t="n">
+        <v>351</v>
+      </c>
+      <c r="D661" t="n">
+        <v>351</v>
+      </c>
+      <c r="E661" t="n">
+        <v>351</v>
+      </c>
+      <c r="F661" t="n">
+        <v>438.351</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-1149050.073886578</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>351</v>
+      </c>
+      <c r="C662" t="n">
+        <v>346</v>
+      </c>
+      <c r="D662" t="n">
+        <v>351</v>
+      </c>
+      <c r="E662" t="n">
+        <v>346</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2220.8225</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-1151270.896386578</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>346</v>
+      </c>
+      <c r="C663" t="n">
+        <v>345</v>
+      </c>
+      <c r="D663" t="n">
+        <v>346</v>
+      </c>
+      <c r="E663" t="n">
+        <v>345</v>
+      </c>
+      <c r="F663" t="n">
+        <v>3626.0018</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-1154896.898186578</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>344</v>
+      </c>
+      <c r="C664" t="n">
+        <v>342</v>
+      </c>
+      <c r="D664" t="n">
+        <v>344</v>
+      </c>
+      <c r="E664" t="n">
+        <v>342</v>
+      </c>
+      <c r="F664" t="n">
+        <v>15444.5851</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-1170341.483286578</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>342</v>
+      </c>
+      <c r="C665" t="n">
+        <v>343</v>
+      </c>
+      <c r="D665" t="n">
+        <v>343</v>
+      </c>
+      <c r="E665" t="n">
+        <v>342</v>
+      </c>
+      <c r="F665" t="n">
+        <v>2486.379672594752</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-1167855.103613983</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>342</v>
+      </c>
+      <c r="C666" t="n">
+        <v>342</v>
+      </c>
+      <c r="D666" t="n">
+        <v>342</v>
+      </c>
+      <c r="E666" t="n">
+        <v>341</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1643.6977</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-1169498.801313983</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>342</v>
+      </c>
+      <c r="C667" t="n">
+        <v>342</v>
+      </c>
+      <c r="D667" t="n">
+        <v>342</v>
+      </c>
+      <c r="E667" t="n">
+        <v>342</v>
+      </c>
+      <c r="F667" t="n">
+        <v>2596.6922</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-1169498.801313983</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>342</v>
+      </c>
+      <c r="C668" t="n">
+        <v>344</v>
+      </c>
+      <c r="D668" t="n">
+        <v>345</v>
+      </c>
+      <c r="E668" t="n">
+        <v>342</v>
+      </c>
+      <c r="F668" t="n">
+        <v>6865.08647768116</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-1162633.714836302</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>345</v>
+      </c>
+      <c r="C669" t="n">
+        <v>345</v>
+      </c>
+      <c r="D669" t="n">
+        <v>345</v>
+      </c>
+      <c r="E669" t="n">
+        <v>345</v>
+      </c>
+      <c r="F669" t="n">
+        <v>119.9999</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-1162513.714936302</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>345</v>
+      </c>
+      <c r="C670" t="n">
+        <v>346</v>
+      </c>
+      <c r="D670" t="n">
+        <v>346</v>
+      </c>
+      <c r="E670" t="n">
+        <v>345</v>
+      </c>
+      <c r="F670" t="n">
+        <v>40.0001</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-1162473.714836302</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>348</v>
+      </c>
+      <c r="C671" t="n">
+        <v>348</v>
+      </c>
+      <c r="D671" t="n">
+        <v>348</v>
+      </c>
+      <c r="E671" t="n">
+        <v>348</v>
+      </c>
+      <c r="F671" t="n">
+        <v>611.0143</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-1161862.700536302</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>348</v>
+      </c>
+      <c r="C672" t="n">
+        <v>348</v>
+      </c>
+      <c r="D672" t="n">
+        <v>348</v>
+      </c>
+      <c r="E672" t="n">
+        <v>348</v>
+      </c>
+      <c r="F672" t="n">
+        <v>850</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-1161862.700536302</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>349</v>
+      </c>
+      <c r="C673" t="n">
+        <v>349</v>
+      </c>
+      <c r="D673" t="n">
+        <v>349</v>
+      </c>
+      <c r="E673" t="n">
+        <v>349</v>
+      </c>
+      <c r="F673" t="n">
+        <v>43</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-1161819.700536302</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>347</v>
+      </c>
+      <c r="C674" t="n">
+        <v>347</v>
+      </c>
+      <c r="D674" t="n">
+        <v>347</v>
+      </c>
+      <c r="E674" t="n">
+        <v>347</v>
+      </c>
+      <c r="F674" t="n">
+        <v>35.8108</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-1161855.511336302</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>346</v>
+      </c>
+      <c r="C675" t="n">
+        <v>346</v>
+      </c>
+      <c r="D675" t="n">
+        <v>346</v>
+      </c>
+      <c r="E675" t="n">
+        <v>346</v>
+      </c>
+      <c r="F675" t="n">
+        <v>40</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-1161895.511336302</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>345</v>
+      </c>
+      <c r="C676" t="n">
+        <v>345</v>
+      </c>
+      <c r="D676" t="n">
+        <v>345</v>
+      </c>
+      <c r="E676" t="n">
+        <v>345</v>
+      </c>
+      <c r="F676" t="n">
+        <v>969.9999</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-1162865.511236302</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>344</v>
+      </c>
+      <c r="C677" t="n">
+        <v>344</v>
+      </c>
+      <c r="D677" t="n">
+        <v>344</v>
+      </c>
+      <c r="E677" t="n">
+        <v>344</v>
+      </c>
+      <c r="F677" t="n">
+        <v>2650</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-1165515.511236302</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>344</v>
+      </c>
+      <c r="C678" t="n">
+        <v>344</v>
+      </c>
+      <c r="D678" t="n">
+        <v>344</v>
+      </c>
+      <c r="E678" t="n">
+        <v>344</v>
+      </c>
+      <c r="F678" t="n">
+        <v>23.018</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-1165515.511236302</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>343</v>
+      </c>
+      <c r="C679" t="n">
+        <v>343</v>
+      </c>
+      <c r="D679" t="n">
+        <v>343</v>
+      </c>
+      <c r="E679" t="n">
+        <v>343</v>
+      </c>
+      <c r="F679" t="n">
+        <v>587.9131</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-1166103.424336302</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>343</v>
+      </c>
+      <c r="C680" t="n">
+        <v>344</v>
+      </c>
+      <c r="D680" t="n">
+        <v>344</v>
+      </c>
+      <c r="E680" t="n">
+        <v>343</v>
+      </c>
+      <c r="F680" t="n">
+        <v>3434.1195</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-1162669.304836302</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>344</v>
+      </c>
+      <c r="C681" t="n">
+        <v>344</v>
+      </c>
+      <c r="D681" t="n">
+        <v>344</v>
+      </c>
+      <c r="E681" t="n">
+        <v>344</v>
+      </c>
+      <c r="F681" t="n">
+        <v>609.9847</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-1162669.304836302</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>345</v>
+      </c>
+      <c r="C682" t="n">
+        <v>344</v>
+      </c>
+      <c r="D682" t="n">
+        <v>345</v>
+      </c>
+      <c r="E682" t="n">
+        <v>344</v>
+      </c>
+      <c r="F682" t="n">
+        <v>964.4896</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-1162669.304836302</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>344</v>
+      </c>
+      <c r="C683" t="n">
+        <v>344</v>
+      </c>
+      <c r="D683" t="n">
+        <v>344</v>
+      </c>
+      <c r="E683" t="n">
+        <v>344</v>
+      </c>
+      <c r="F683" t="n">
+        <v>4979.2407</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-1162669.304836302</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>344</v>
+      </c>
+      <c r="C684" t="n">
+        <v>344</v>
+      </c>
+      <c r="D684" t="n">
+        <v>344</v>
+      </c>
+      <c r="E684" t="n">
+        <v>344</v>
+      </c>
+      <c r="F684" t="n">
+        <v>453</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-1162669.304836302</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>345</v>
+      </c>
+      <c r="C685" t="n">
+        <v>345</v>
+      </c>
+      <c r="D685" t="n">
+        <v>345</v>
+      </c>
+      <c r="E685" t="n">
+        <v>345</v>
+      </c>
+      <c r="F685" t="n">
+        <v>8.695600000000001</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-1162660.609236302</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>344</v>
+      </c>
+      <c r="C686" t="n">
+        <v>344</v>
+      </c>
+      <c r="D686" t="n">
+        <v>344</v>
+      </c>
+      <c r="E686" t="n">
+        <v>344</v>
+      </c>
+      <c r="F686" t="n">
+        <v>323.6598</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-1162984.269036302</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>344</v>
+      </c>
+      <c r="C687" t="n">
+        <v>343</v>
+      </c>
+      <c r="D687" t="n">
+        <v>344</v>
+      </c>
+      <c r="E687" t="n">
+        <v>343</v>
+      </c>
+      <c r="F687" t="n">
+        <v>127.5951</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-1163111.864136302</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>344</v>
+      </c>
+      <c r="C688" t="n">
+        <v>344</v>
+      </c>
+      <c r="D688" t="n">
+        <v>344</v>
+      </c>
+      <c r="E688" t="n">
+        <v>344</v>
+      </c>
+      <c r="F688" t="n">
+        <v>218.8526</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-1162893.011536302</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>344</v>
+      </c>
+      <c r="C689" t="n">
+        <v>340</v>
+      </c>
+      <c r="D689" t="n">
+        <v>344</v>
+      </c>
+      <c r="E689" t="n">
+        <v>340</v>
+      </c>
+      <c r="F689" t="n">
+        <v>45517.2234</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-1208410.234936302</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>344</v>
+      </c>
+      <c r="C690" t="n">
+        <v>344</v>
+      </c>
+      <c r="D690" t="n">
+        <v>344</v>
+      </c>
+      <c r="E690" t="n">
+        <v>344</v>
+      </c>
+      <c r="F690" t="n">
+        <v>2699.6269</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-1205710.608036302</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>344</v>
+      </c>
+      <c r="C691" t="n">
+        <v>344</v>
+      </c>
+      <c r="D691" t="n">
+        <v>344</v>
+      </c>
+      <c r="E691" t="n">
+        <v>344</v>
+      </c>
+      <c r="F691" t="n">
+        <v>3521.8718</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-1205710.608036302</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>345</v>
+      </c>
+      <c r="C692" t="n">
+        <v>344</v>
+      </c>
+      <c r="D692" t="n">
+        <v>345</v>
+      </c>
+      <c r="E692" t="n">
+        <v>344</v>
+      </c>
+      <c r="F692" t="n">
+        <v>942.0001</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-1205710.608036302</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>345</v>
+      </c>
+      <c r="C693" t="n">
+        <v>345</v>
+      </c>
+      <c r="D693" t="n">
+        <v>345</v>
+      </c>
+      <c r="E693" t="n">
+        <v>345</v>
+      </c>
+      <c r="F693" t="n">
+        <v>8650.081899999999</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-1197060.526136302</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>345</v>
+      </c>
+      <c r="C694" t="n">
+        <v>346</v>
+      </c>
+      <c r="D694" t="n">
+        <v>346</v>
+      </c>
+      <c r="E694" t="n">
+        <v>344</v>
+      </c>
+      <c r="F694" t="n">
+        <v>16746.593</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-1180313.933136302</v>
+      </c>
+      <c r="H694" t="n">
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>345</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>345</v>
-      </c>
-      <c r="C620" t="n">
-        <v>346</v>
-      </c>
-      <c r="D620" t="n">
-        <v>346</v>
-      </c>
-      <c r="E620" t="n">
-        <v>345</v>
-      </c>
-      <c r="F620" t="n">
-        <v>327.9208</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-1201423.939086578</v>
-      </c>
-      <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>345</v>
-      </c>
-      <c r="J620" t="n">
-        <v>346</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>346</v>
-      </c>
-      <c r="C621" t="n">
-        <v>345</v>
-      </c>
-      <c r="D621" t="n">
-        <v>346</v>
-      </c>
-      <c r="E621" t="n">
-        <v>345</v>
-      </c>
-      <c r="F621" t="n">
-        <v>17854.3195</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-1219278.258586578</v>
-      </c>
-      <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>346</v>
-      </c>
-      <c r="J621" t="n">
-        <v>346</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>345</v>
-      </c>
-      <c r="C622" t="n">
-        <v>345</v>
-      </c>
-      <c r="D622" t="n">
-        <v>345</v>
-      </c>
-      <c r="E622" t="n">
-        <v>345</v>
-      </c>
-      <c r="F622" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-1219278.258586578</v>
-      </c>
-      <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>345</v>
-      </c>
-      <c r="J622" t="n">
-        <v>346</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>346</v>
-      </c>
-      <c r="C623" t="n">
-        <v>346</v>
-      </c>
-      <c r="D623" t="n">
-        <v>346</v>
-      </c>
-      <c r="E623" t="n">
-        <v>346</v>
-      </c>
-      <c r="F623" t="n">
-        <v>1508.066</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-1217770.192586578</v>
-      </c>
-      <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>345</v>
-      </c>
-      <c r="J623" t="n">
-        <v>346</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>345</v>
-      </c>
-      <c r="C624" t="n">
-        <v>346</v>
-      </c>
-      <c r="D624" t="n">
-        <v>346</v>
-      </c>
-      <c r="E624" t="n">
-        <v>345</v>
-      </c>
-      <c r="F624" t="n">
-        <v>425</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-1217770.192586578</v>
-      </c>
-      <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>346</v>
-      </c>
-      <c r="J624" t="n">
-        <v>346</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>346</v>
-      </c>
-      <c r="C625" t="n">
-        <v>346</v>
-      </c>
-      <c r="D625" t="n">
-        <v>346</v>
-      </c>
-      <c r="E625" t="n">
-        <v>346</v>
-      </c>
-      <c r="F625" t="n">
-        <v>2280</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-1217770.192586578</v>
-      </c>
-      <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>346</v>
-      </c>
-      <c r="J625" t="n">
-        <v>346</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>346</v>
-      </c>
-      <c r="C626" t="n">
-        <v>348</v>
-      </c>
-      <c r="D626" t="n">
-        <v>348</v>
-      </c>
-      <c r="E626" t="n">
-        <v>346</v>
-      </c>
-      <c r="F626" t="n">
-        <v>11626.8035</v>
-      </c>
-      <c r="G626" t="n">
-        <v>-1206143.389086578</v>
-      </c>
-      <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>346</v>
-      </c>
-      <c r="J626" t="n">
-        <v>346</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>346</v>
-      </c>
-      <c r="C627" t="n">
-        <v>346</v>
-      </c>
-      <c r="D627" t="n">
-        <v>346</v>
-      </c>
-      <c r="E627" t="n">
-        <v>346</v>
-      </c>
-      <c r="F627" t="n">
-        <v>66</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-1206209.389086578</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>346</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>346</v>
-      </c>
-      <c r="C628" t="n">
-        <v>346</v>
-      </c>
-      <c r="D628" t="n">
-        <v>346</v>
-      </c>
-      <c r="E628" t="n">
-        <v>346</v>
-      </c>
-      <c r="F628" t="n">
-        <v>479.7774</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-1206209.389086578</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>346</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>348</v>
-      </c>
-      <c r="C629" t="n">
-        <v>348</v>
-      </c>
-      <c r="D629" t="n">
-        <v>348</v>
-      </c>
-      <c r="E629" t="n">
-        <v>348</v>
-      </c>
-      <c r="F629" t="n">
-        <v>22513.7931</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-1183695.595986578</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>346</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>348</v>
-      </c>
-      <c r="C630" t="n">
-        <v>348</v>
-      </c>
-      <c r="D630" t="n">
-        <v>348</v>
-      </c>
-      <c r="E630" t="n">
-        <v>348</v>
-      </c>
-      <c r="F630" t="n">
-        <v>7450</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-1183695.595986578</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>346</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>348</v>
-      </c>
-      <c r="C631" t="n">
-        <v>349</v>
-      </c>
-      <c r="D631" t="n">
-        <v>349</v>
-      </c>
-      <c r="E631" t="n">
-        <v>348</v>
-      </c>
-      <c r="F631" t="n">
-        <v>7939.4019</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-1175756.194086578</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>346</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>348</v>
-      </c>
-      <c r="C632" t="n">
-        <v>348</v>
-      </c>
-      <c r="D632" t="n">
-        <v>348</v>
-      </c>
-      <c r="E632" t="n">
-        <v>348</v>
-      </c>
-      <c r="F632" t="n">
-        <v>2820.1795</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-1178576.373586578</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>346</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>348</v>
-      </c>
-      <c r="C633" t="n">
-        <v>350</v>
-      </c>
-      <c r="D633" t="n">
-        <v>350</v>
-      </c>
-      <c r="E633" t="n">
-        <v>348</v>
-      </c>
-      <c r="F633" t="n">
-        <v>48488.5917</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-1130087.781886578</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>346</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>350</v>
-      </c>
-      <c r="C634" t="n">
-        <v>350</v>
-      </c>
-      <c r="D634" t="n">
-        <v>350</v>
-      </c>
-      <c r="E634" t="n">
-        <v>350</v>
-      </c>
-      <c r="F634" t="n">
-        <v>286.6915</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-1130087.781886578</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>346</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>350</v>
-      </c>
-      <c r="C635" t="n">
-        <v>349</v>
-      </c>
-      <c r="D635" t="n">
-        <v>350</v>
-      </c>
-      <c r="E635" t="n">
-        <v>349</v>
-      </c>
-      <c r="F635" t="n">
-        <v>11370.8514</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-1141458.633286578</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>346</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>349</v>
-      </c>
-      <c r="C636" t="n">
-        <v>349</v>
-      </c>
-      <c r="D636" t="n">
-        <v>349</v>
-      </c>
-      <c r="E636" t="n">
-        <v>349</v>
-      </c>
-      <c r="F636" t="n">
-        <v>100</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-1141458.633286578</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>346</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>350</v>
-      </c>
-      <c r="C637" t="n">
-        <v>350</v>
-      </c>
-      <c r="D637" t="n">
-        <v>350</v>
-      </c>
-      <c r="E637" t="n">
-        <v>350</v>
-      </c>
-      <c r="F637" t="n">
-        <v>8.7342</v>
-      </c>
-      <c r="G637" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>346</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>350</v>
-      </c>
-      <c r="C638" t="n">
-        <v>350</v>
-      </c>
-      <c r="D638" t="n">
-        <v>350</v>
-      </c>
-      <c r="E638" t="n">
-        <v>350</v>
-      </c>
-      <c r="F638" t="n">
-        <v>977.3541</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>346</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>350</v>
-      </c>
-      <c r="C639" t="n">
-        <v>350</v>
-      </c>
-      <c r="D639" t="n">
-        <v>350</v>
-      </c>
-      <c r="E639" t="n">
-        <v>350</v>
-      </c>
-      <c r="F639" t="n">
-        <v>11251.4069</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>346</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>350</v>
-      </c>
-      <c r="C640" t="n">
-        <v>350</v>
-      </c>
-      <c r="D640" t="n">
-        <v>350</v>
-      </c>
-      <c r="E640" t="n">
-        <v>350</v>
-      </c>
-      <c r="F640" t="n">
-        <v>130.1898</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>346</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>350</v>
-      </c>
-      <c r="C641" t="n">
-        <v>350</v>
-      </c>
-      <c r="D641" t="n">
-        <v>350</v>
-      </c>
-      <c r="E641" t="n">
-        <v>350</v>
-      </c>
-      <c r="F641" t="n">
-        <v>1524.5606</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>346</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>350</v>
-      </c>
-      <c r="C642" t="n">
-        <v>350</v>
-      </c>
-      <c r="D642" t="n">
-        <v>350</v>
-      </c>
-      <c r="E642" t="n">
-        <v>350</v>
-      </c>
-      <c r="F642" t="n">
-        <v>3159.2451</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-1141449.899086578</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>346</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>350</v>
-      </c>
-      <c r="C643" t="n">
-        <v>351</v>
-      </c>
-      <c r="D643" t="n">
-        <v>351</v>
-      </c>
-      <c r="E643" t="n">
-        <v>350</v>
-      </c>
-      <c r="F643" t="n">
-        <v>3009.2805</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-1138440.618586578</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>346</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>351</v>
-      </c>
-      <c r="C644" t="n">
-        <v>351</v>
-      </c>
-      <c r="D644" t="n">
-        <v>351</v>
-      </c>
-      <c r="E644" t="n">
-        <v>351</v>
-      </c>
-      <c r="F644" t="n">
-        <v>2251.9298</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-1138440.618586578</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>346</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>351</v>
-      </c>
-      <c r="C645" t="n">
-        <v>351</v>
-      </c>
-      <c r="D645" t="n">
-        <v>351</v>
-      </c>
-      <c r="E645" t="n">
-        <v>351</v>
-      </c>
-      <c r="F645" t="n">
-        <v>2499.6808</v>
-      </c>
-      <c r="G645" t="n">
-        <v>-1138440.618586578</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>346</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>351</v>
-      </c>
-      <c r="C646" t="n">
-        <v>351</v>
-      </c>
-      <c r="D646" t="n">
-        <v>351</v>
-      </c>
-      <c r="E646" t="n">
-        <v>351</v>
-      </c>
-      <c r="F646" t="n">
-        <v>1194.4174</v>
-      </c>
-      <c r="G646" t="n">
-        <v>-1138440.618586578</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>346</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>351</v>
-      </c>
-      <c r="C647" t="n">
-        <v>351</v>
-      </c>
-      <c r="D647" t="n">
-        <v>351</v>
-      </c>
-      <c r="E647" t="n">
-        <v>351</v>
-      </c>
-      <c r="F647" t="n">
-        <v>18507.5875</v>
-      </c>
-      <c r="G647" t="n">
-        <v>-1138440.618586578</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>346</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>352</v>
-      </c>
-      <c r="C648" t="n">
-        <v>352</v>
-      </c>
-      <c r="D648" t="n">
-        <v>352</v>
-      </c>
-      <c r="E648" t="n">
-        <v>352</v>
-      </c>
-      <c r="F648" t="n">
-        <v>5665.5977</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-1132775.020886578</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>346</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>352</v>
-      </c>
-      <c r="C649" t="n">
-        <v>352</v>
-      </c>
-      <c r="D649" t="n">
-        <v>352</v>
-      </c>
-      <c r="E649" t="n">
-        <v>352</v>
-      </c>
-      <c r="F649" t="n">
-        <v>35</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-1132775.020886578</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>346</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>352</v>
-      </c>
-      <c r="C650" t="n">
-        <v>352</v>
-      </c>
-      <c r="D650" t="n">
-        <v>352</v>
-      </c>
-      <c r="E650" t="n">
-        <v>352</v>
-      </c>
-      <c r="F650" t="n">
-        <v>151.3494</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-1132775.020886578</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>346</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>352</v>
-      </c>
-      <c r="C651" t="n">
-        <v>352</v>
-      </c>
-      <c r="D651" t="n">
-        <v>352</v>
-      </c>
-      <c r="E651" t="n">
-        <v>352</v>
-      </c>
-      <c r="F651" t="n">
-        <v>6750.084</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-1132775.020886578</v>
-      </c>
-      <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>346</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>352</v>
-      </c>
-      <c r="C652" t="n">
-        <v>350</v>
-      </c>
-      <c r="D652" t="n">
-        <v>353</v>
-      </c>
-      <c r="E652" t="n">
-        <v>350</v>
-      </c>
-      <c r="F652" t="n">
-        <v>19118.2296</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-1151893.250486578</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>346</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>352</v>
-      </c>
-      <c r="C653" t="n">
-        <v>352</v>
-      </c>
-      <c r="D653" t="n">
-        <v>352</v>
-      </c>
-      <c r="E653" t="n">
-        <v>352</v>
-      </c>
-      <c r="F653" t="n">
-        <v>1332.6562</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-1150560.594286578</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>346</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>351</v>
-      </c>
-      <c r="C654" t="n">
-        <v>351</v>
-      </c>
-      <c r="D654" t="n">
-        <v>351</v>
-      </c>
-      <c r="E654" t="n">
-        <v>351</v>
-      </c>
-      <c r="F654" t="n">
-        <v>741.5883</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-1151302.182586578</v>
-      </c>
-      <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>346</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>351</v>
-      </c>
-      <c r="C655" t="n">
-        <v>350</v>
-      </c>
-      <c r="D655" t="n">
-        <v>351</v>
-      </c>
-      <c r="E655" t="n">
-        <v>350</v>
-      </c>
-      <c r="F655" t="n">
-        <v>4745.4961</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-1156047.678686578</v>
-      </c>
-      <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>346</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>350</v>
-      </c>
-      <c r="C656" t="n">
-        <v>350</v>
-      </c>
-      <c r="D656" t="n">
-        <v>351</v>
-      </c>
-      <c r="E656" t="n">
-        <v>350</v>
-      </c>
-      <c r="F656" t="n">
-        <v>31272.897</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-1156047.678686578</v>
-      </c>
-      <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>346</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>352</v>
-      </c>
-      <c r="C657" t="n">
-        <v>352</v>
-      </c>
-      <c r="D657" t="n">
-        <v>352</v>
-      </c>
-      <c r="E657" t="n">
-        <v>352</v>
-      </c>
-      <c r="F657" t="n">
-        <v>2335.9558</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-1153711.722886578</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>346</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>352</v>
-      </c>
-      <c r="C658" t="n">
-        <v>352</v>
-      </c>
-      <c r="D658" t="n">
-        <v>352</v>
-      </c>
-      <c r="E658" t="n">
-        <v>352</v>
-      </c>
-      <c r="F658" t="n">
-        <v>237.106</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-1153711.722886578</v>
-      </c>
-      <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>346</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>352</v>
-      </c>
-      <c r="C659" t="n">
-        <v>353</v>
-      </c>
-      <c r="D659" t="n">
-        <v>353</v>
-      </c>
-      <c r="E659" t="n">
-        <v>352</v>
-      </c>
-      <c r="F659" t="n">
-        <v>5100</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-1148611.722886578</v>
-      </c>
-      <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>346</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>353</v>
-      </c>
-      <c r="C660" t="n">
-        <v>353</v>
-      </c>
-      <c r="D660" t="n">
-        <v>353</v>
-      </c>
-      <c r="E660" t="n">
-        <v>353</v>
-      </c>
-      <c r="F660" t="n">
-        <v>14.3543</v>
-      </c>
-      <c r="G660" t="n">
-        <v>-1148611.722886578</v>
-      </c>
-      <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>346</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>351</v>
-      </c>
-      <c r="C661" t="n">
-        <v>351</v>
-      </c>
-      <c r="D661" t="n">
-        <v>351</v>
-      </c>
-      <c r="E661" t="n">
-        <v>351</v>
-      </c>
-      <c r="F661" t="n">
-        <v>438.351</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-1149050.073886578</v>
-      </c>
-      <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>346</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>351</v>
-      </c>
-      <c r="C662" t="n">
-        <v>346</v>
-      </c>
-      <c r="D662" t="n">
-        <v>351</v>
-      </c>
-      <c r="E662" t="n">
-        <v>346</v>
-      </c>
-      <c r="F662" t="n">
-        <v>2220.8225</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-1151270.896386578</v>
-      </c>
-      <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>346</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>346</v>
-      </c>
-      <c r="C663" t="n">
-        <v>345</v>
-      </c>
-      <c r="D663" t="n">
-        <v>346</v>
-      </c>
-      <c r="E663" t="n">
-        <v>345</v>
-      </c>
-      <c r="F663" t="n">
-        <v>3626.0018</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-1154896.898186578</v>
-      </c>
-      <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>346</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>344</v>
-      </c>
-      <c r="C664" t="n">
-        <v>342</v>
-      </c>
-      <c r="D664" t="n">
-        <v>344</v>
-      </c>
-      <c r="E664" t="n">
-        <v>342</v>
-      </c>
-      <c r="F664" t="n">
-        <v>15444.5851</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-1170341.483286578</v>
-      </c>
-      <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>345</v>
-      </c>
-      <c r="J664" t="n">
-        <v>346</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>342</v>
-      </c>
-      <c r="C665" t="n">
-        <v>343</v>
-      </c>
-      <c r="D665" t="n">
-        <v>343</v>
-      </c>
-      <c r="E665" t="n">
-        <v>342</v>
-      </c>
-      <c r="F665" t="n">
-        <v>2486.379672594752</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-1167855.103613983</v>
-      </c>
-      <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>342</v>
-      </c>
-      <c r="J665" t="n">
-        <v>346</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>342</v>
-      </c>
-      <c r="C666" t="n">
-        <v>342</v>
-      </c>
-      <c r="D666" t="n">
-        <v>342</v>
-      </c>
-      <c r="E666" t="n">
-        <v>341</v>
-      </c>
-      <c r="F666" t="n">
-        <v>1643.6977</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-1169498.801313983</v>
-      </c>
-      <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>343</v>
-      </c>
-      <c r="J666" t="n">
-        <v>346</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>342</v>
-      </c>
-      <c r="C667" t="n">
-        <v>342</v>
-      </c>
-      <c r="D667" t="n">
-        <v>342</v>
-      </c>
-      <c r="E667" t="n">
-        <v>342</v>
-      </c>
-      <c r="F667" t="n">
-        <v>2596.6922</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-1169498.801313983</v>
-      </c>
-      <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>342</v>
-      </c>
-      <c r="J667" t="n">
-        <v>346</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>342</v>
-      </c>
-      <c r="C668" t="n">
-        <v>344</v>
-      </c>
-      <c r="D668" t="n">
-        <v>345</v>
-      </c>
-      <c r="E668" t="n">
-        <v>342</v>
-      </c>
-      <c r="F668" t="n">
-        <v>6865.08647768116</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-1162633.714836302</v>
-      </c>
-      <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>342</v>
-      </c>
-      <c r="J668" t="n">
-        <v>346</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>345</v>
-      </c>
-      <c r="C669" t="n">
-        <v>345</v>
-      </c>
-      <c r="D669" t="n">
-        <v>345</v>
-      </c>
-      <c r="E669" t="n">
-        <v>345</v>
-      </c>
-      <c r="F669" t="n">
-        <v>119.9999</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-1162513.714936302</v>
-      </c>
-      <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>344</v>
-      </c>
-      <c r="J669" t="n">
-        <v>346</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>345</v>
-      </c>
-      <c r="C670" t="n">
-        <v>346</v>
-      </c>
-      <c r="D670" t="n">
-        <v>346</v>
-      </c>
-      <c r="E670" t="n">
-        <v>345</v>
-      </c>
-      <c r="F670" t="n">
-        <v>40.0001</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-1162473.714836302</v>
-      </c>
-      <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>345</v>
-      </c>
-      <c r="J670" t="n">
-        <v>346</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>348</v>
-      </c>
-      <c r="C671" t="n">
-        <v>348</v>
-      </c>
-      <c r="D671" t="n">
-        <v>348</v>
-      </c>
-      <c r="E671" t="n">
-        <v>348</v>
-      </c>
-      <c r="F671" t="n">
-        <v>611.0143</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-1161862.700536302</v>
-      </c>
-      <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>346</v>
-      </c>
-      <c r="J671" t="n">
-        <v>346</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>348</v>
-      </c>
-      <c r="C672" t="n">
-        <v>348</v>
-      </c>
-      <c r="D672" t="n">
-        <v>348</v>
-      </c>
-      <c r="E672" t="n">
-        <v>348</v>
-      </c>
-      <c r="F672" t="n">
-        <v>850</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-1161862.700536302</v>
-      </c>
-      <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>348</v>
-      </c>
-      <c r="J672" t="n">
-        <v>346</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>349</v>
-      </c>
-      <c r="C673" t="n">
-        <v>349</v>
-      </c>
-      <c r="D673" t="n">
-        <v>349</v>
-      </c>
-      <c r="E673" t="n">
-        <v>349</v>
-      </c>
-      <c r="F673" t="n">
-        <v>43</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-1161819.700536302</v>
-      </c>
-      <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>348</v>
-      </c>
-      <c r="J673" t="n">
-        <v>346</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>347</v>
-      </c>
-      <c r="C674" t="n">
-        <v>347</v>
-      </c>
-      <c r="D674" t="n">
-        <v>347</v>
-      </c>
-      <c r="E674" t="n">
-        <v>347</v>
-      </c>
-      <c r="F674" t="n">
-        <v>35.8108</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-1161855.511336302</v>
-      </c>
-      <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>349</v>
-      </c>
-      <c r="J674" t="n">
-        <v>346</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>346</v>
-      </c>
-      <c r="C675" t="n">
-        <v>346</v>
-      </c>
-      <c r="D675" t="n">
-        <v>346</v>
-      </c>
-      <c r="E675" t="n">
-        <v>346</v>
-      </c>
-      <c r="F675" t="n">
-        <v>40</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-1161895.511336302</v>
-      </c>
-      <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>347</v>
-      </c>
-      <c r="J675" t="n">
-        <v>346</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>345</v>
-      </c>
-      <c r="C676" t="n">
-        <v>345</v>
-      </c>
-      <c r="D676" t="n">
-        <v>345</v>
-      </c>
-      <c r="E676" t="n">
-        <v>345</v>
-      </c>
-      <c r="F676" t="n">
-        <v>969.9999</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-1162865.511236302</v>
-      </c>
-      <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>346</v>
-      </c>
-      <c r="J676" t="n">
-        <v>346</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>344</v>
-      </c>
-      <c r="C677" t="n">
-        <v>344</v>
-      </c>
-      <c r="D677" t="n">
-        <v>344</v>
-      </c>
-      <c r="E677" t="n">
-        <v>344</v>
-      </c>
-      <c r="F677" t="n">
-        <v>2650</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-1165515.511236302</v>
-      </c>
-      <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>345</v>
-      </c>
-      <c r="J677" t="n">
-        <v>346</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>344</v>
-      </c>
-      <c r="C678" t="n">
-        <v>344</v>
-      </c>
-      <c r="D678" t="n">
-        <v>344</v>
-      </c>
-      <c r="E678" t="n">
-        <v>344</v>
-      </c>
-      <c r="F678" t="n">
-        <v>23.018</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-1165515.511236302</v>
-      </c>
-      <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>344</v>
-      </c>
-      <c r="J678" t="n">
-        <v>346</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>343</v>
-      </c>
-      <c r="C679" t="n">
-        <v>343</v>
-      </c>
-      <c r="D679" t="n">
-        <v>343</v>
-      </c>
-      <c r="E679" t="n">
-        <v>343</v>
-      </c>
-      <c r="F679" t="n">
-        <v>587.9131</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-1166103.424336302</v>
-      </c>
-      <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>344</v>
-      </c>
-      <c r="J679" t="n">
-        <v>346</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>343</v>
-      </c>
-      <c r="C680" t="n">
-        <v>344</v>
-      </c>
-      <c r="D680" t="n">
-        <v>344</v>
-      </c>
-      <c r="E680" t="n">
-        <v>343</v>
-      </c>
-      <c r="F680" t="n">
-        <v>3434.1195</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-1162669.304836302</v>
-      </c>
-      <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>343</v>
-      </c>
-      <c r="J680" t="n">
-        <v>346</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>344</v>
-      </c>
-      <c r="C681" t="n">
-        <v>344</v>
-      </c>
-      <c r="D681" t="n">
-        <v>344</v>
-      </c>
-      <c r="E681" t="n">
-        <v>344</v>
-      </c>
-      <c r="F681" t="n">
-        <v>609.9847</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-1162669.304836302</v>
-      </c>
-      <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>344</v>
-      </c>
-      <c r="J681" t="n">
-        <v>346</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>345</v>
-      </c>
-      <c r="C682" t="n">
-        <v>344</v>
-      </c>
-      <c r="D682" t="n">
-        <v>345</v>
-      </c>
-      <c r="E682" t="n">
-        <v>344</v>
-      </c>
-      <c r="F682" t="n">
-        <v>964.4896</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-1162669.304836302</v>
-      </c>
-      <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>344</v>
-      </c>
-      <c r="J682" t="n">
-        <v>346</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>344</v>
-      </c>
-      <c r="C683" t="n">
-        <v>344</v>
-      </c>
-      <c r="D683" t="n">
-        <v>344</v>
-      </c>
-      <c r="E683" t="n">
-        <v>344</v>
-      </c>
-      <c r="F683" t="n">
-        <v>4979.2407</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-1162669.304836302</v>
-      </c>
-      <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>344</v>
-      </c>
-      <c r="J683" t="n">
-        <v>346</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>344</v>
-      </c>
-      <c r="C684" t="n">
-        <v>344</v>
-      </c>
-      <c r="D684" t="n">
-        <v>344</v>
-      </c>
-      <c r="E684" t="n">
-        <v>344</v>
-      </c>
-      <c r="F684" t="n">
-        <v>453</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-1162669.304836302</v>
-      </c>
-      <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>344</v>
-      </c>
-      <c r="J684" t="n">
-        <v>346</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>345</v>
-      </c>
-      <c r="C685" t="n">
-        <v>345</v>
-      </c>
-      <c r="D685" t="n">
-        <v>345</v>
-      </c>
-      <c r="E685" t="n">
-        <v>345</v>
-      </c>
-      <c r="F685" t="n">
-        <v>8.695600000000001</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-1162660.609236302</v>
-      </c>
-      <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>344</v>
-      </c>
-      <c r="J685" t="n">
-        <v>346</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>344</v>
-      </c>
-      <c r="C686" t="n">
-        <v>344</v>
-      </c>
-      <c r="D686" t="n">
-        <v>344</v>
-      </c>
-      <c r="E686" t="n">
-        <v>344</v>
-      </c>
-      <c r="F686" t="n">
-        <v>323.6598</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-1162984.269036302</v>
-      </c>
-      <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>345</v>
-      </c>
-      <c r="J686" t="n">
-        <v>346</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>344</v>
-      </c>
-      <c r="C687" t="n">
-        <v>343</v>
-      </c>
-      <c r="D687" t="n">
-        <v>344</v>
-      </c>
-      <c r="E687" t="n">
-        <v>343</v>
-      </c>
-      <c r="F687" t="n">
-        <v>127.5951</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-1163111.864136302</v>
-      </c>
-      <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>344</v>
-      </c>
-      <c r="J687" t="n">
-        <v>346</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>344</v>
-      </c>
-      <c r="C688" t="n">
-        <v>344</v>
-      </c>
-      <c r="D688" t="n">
-        <v>344</v>
-      </c>
-      <c r="E688" t="n">
-        <v>344</v>
-      </c>
-      <c r="F688" t="n">
-        <v>218.8526</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-1162893.011536302</v>
-      </c>
-      <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>343</v>
-      </c>
-      <c r="J688" t="n">
-        <v>346</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>344</v>
-      </c>
-      <c r="C689" t="n">
-        <v>340</v>
-      </c>
-      <c r="D689" t="n">
-        <v>344</v>
-      </c>
-      <c r="E689" t="n">
-        <v>340</v>
-      </c>
-      <c r="F689" t="n">
-        <v>45517.2234</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-1208410.234936302</v>
-      </c>
-      <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>344</v>
-      </c>
-      <c r="J689" t="n">
-        <v>346</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>344</v>
-      </c>
-      <c r="C690" t="n">
-        <v>344</v>
-      </c>
-      <c r="D690" t="n">
-        <v>344</v>
-      </c>
-      <c r="E690" t="n">
-        <v>344</v>
-      </c>
-      <c r="F690" t="n">
-        <v>2699.6269</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-1205710.608036302</v>
-      </c>
-      <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>340</v>
-      </c>
-      <c r="J690" t="n">
-        <v>346</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>344</v>
-      </c>
-      <c r="C691" t="n">
-        <v>344</v>
-      </c>
-      <c r="D691" t="n">
-        <v>344</v>
-      </c>
-      <c r="E691" t="n">
-        <v>344</v>
-      </c>
-      <c r="F691" t="n">
-        <v>3521.8718</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-1205710.608036302</v>
-      </c>
-      <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>344</v>
-      </c>
-      <c r="J691" t="n">
-        <v>346</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>345</v>
-      </c>
-      <c r="C692" t="n">
-        <v>344</v>
-      </c>
-      <c r="D692" t="n">
-        <v>345</v>
-      </c>
-      <c r="E692" t="n">
-        <v>344</v>
-      </c>
-      <c r="F692" t="n">
-        <v>942.0001</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-1205710.608036302</v>
-      </c>
-      <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>344</v>
-      </c>
-      <c r="J692" t="n">
-        <v>346</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>345</v>
-      </c>
-      <c r="C693" t="n">
-        <v>345</v>
-      </c>
-      <c r="D693" t="n">
-        <v>345</v>
-      </c>
-      <c r="E693" t="n">
-        <v>345</v>
-      </c>
-      <c r="F693" t="n">
-        <v>8650.081899999999</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-1197060.526136302</v>
-      </c>
-      <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>344</v>
-      </c>
-      <c r="J693" t="n">
-        <v>346</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>345</v>
-      </c>
-      <c r="C694" t="n">
-        <v>346</v>
-      </c>
-      <c r="D694" t="n">
-        <v>346</v>
-      </c>
-      <c r="E694" t="n">
-        <v>344</v>
-      </c>
-      <c r="F694" t="n">
-        <v>16746.593</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-1180313.933136302</v>
-      </c>
-      <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>345</v>
-      </c>
-      <c r="J694" t="n">
-        <v>346</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23863,9 +23331,7 @@
       <c r="I695" t="n">
         <v>346</v>
       </c>
-      <c r="J695" t="n">
-        <v>346</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23904,9 +23370,7 @@
       <c r="I696" t="n">
         <v>346</v>
       </c>
-      <c r="J696" t="n">
-        <v>346</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23940,14 +23404,10 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>347</v>
-      </c>
-      <c r="J697" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23984,9 +23444,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>346</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24023,9 +23481,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>346</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24059,14 +23515,10 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>343</v>
-      </c>
-      <c r="J700" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24100,14 +23552,10 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>345</v>
-      </c>
-      <c r="J701" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24141,12 +23589,12 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>345</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24180,12 +23628,12 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>345</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24222,9 +23670,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>346</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24261,9 +23707,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>346</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24297,12 +23741,12 @@
         <v>-1182371.769036302</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>343</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24336,14 +23780,10 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>343</v>
-      </c>
-      <c r="J707" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,14 +23817,10 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>342</v>
-      </c>
-      <c r="J708" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24418,14 +23854,10 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>342</v>
-      </c>
-      <c r="J709" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24464,9 +23896,7 @@
       <c r="I710" t="n">
         <v>341</v>
       </c>
-      <c r="J710" t="n">
-        <v>346</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24505,9 +23935,7 @@
       <c r="I711" t="n">
         <v>341</v>
       </c>
-      <c r="J711" t="n">
-        <v>346</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24546,9 +23974,7 @@
       <c r="I712" t="n">
         <v>341</v>
       </c>
-      <c r="J712" t="n">
-        <v>346</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24582,12 +24008,12 @@
         <v>-1198524.081136302</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>342</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24621,12 +24047,12 @@
         <v>-1198524.081136302</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>342</v>
+      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24660,12 +24086,12 @@
         <v>-1198524.081136302</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>342</v>
+      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24699,12 +24125,12 @@
         <v>-1198524.081136302</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>342</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24738,12 +24164,12 @@
         <v>-1198005.520636302</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>342</v>
+      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24782,9 +24208,7 @@
       <c r="I718" t="n">
         <v>344</v>
       </c>
-      <c r="J718" t="n">
-        <v>346</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24821,9 +24245,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>346</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24860,9 +24282,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>346</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24896,12 +24316,12 @@
         <v>-1199756.273936302</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>343</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24935,12 +24355,12 @@
         <v>-1199517.202536302</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>342</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24974,12 +24394,12 @@
         <v>-1199517.202536302</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>343</v>
+      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25013,12 +24433,12 @@
         <v>-1199479.647636302</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>343</v>
+      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25052,12 +24472,12 @@
         <v>-1199479.647636302</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
         <v>346</v>
       </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25094,9 +24514,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>346</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25133,9 +24551,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>346</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25172,9 +24588,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>346</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25211,9 +24625,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>346</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25250,9 +24662,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>346</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25289,9 +24699,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>346</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25328,9 +24736,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>346</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25367,9 +24773,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>346</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25406,9 +24810,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>346</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25445,9 +24847,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>346</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25484,9 +24884,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>346</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25523,9 +24921,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>346</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25562,9 +24958,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>346</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25601,9 +24995,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>346</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25640,9 +25032,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>346</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25679,9 +25069,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>346</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25718,9 +25106,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>346</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25757,9 +25143,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>346</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25796,9 +25180,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>346</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25835,9 +25217,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>346</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25874,9 +25254,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>346</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25913,9 +25291,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>346</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25952,9 +25328,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>346</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25991,9 +25365,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>346</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,9 +25402,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>346</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26044,6 +25414,6 @@
       <c r="M750" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-26 BackTest ZRX.xlsx
@@ -748,7 +748,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>65566.78330000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>64157.58200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>64589.95950000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>64704.76680000003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>65110.90860000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>72952.91450000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>64838.16590000003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>79038.19570737708</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>75998.85080737708</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>75684.82860737707</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>77672.04160737708</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>63888.91700737708</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>66964.35190737709</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>65414.64530737709</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>36506.64820737709</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>36467.51000737709</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>35797.46230737709</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-421980.3826746673</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-412970.7928746673</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-417001.7008746673</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-397625.5340299379</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -19360,10 +19360,14 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>346</v>
+      </c>
+      <c r="J575" t="n">
+        <v>346</v>
+      </c>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
@@ -19393,11 +19397,19 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>346</v>
+      </c>
+      <c r="J576" t="n">
+        <v>346</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19438,19 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>346</v>
+      </c>
+      <c r="J577" t="n">
+        <v>346</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,10 +19479,14 @@
         <v>-1186019.437814164</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>346</v>
+      </c>
+      <c r="J578" t="n">
+        <v>346</v>
+      </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -19492,11 +19516,19 @@
         <v>-1186028.857614164</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>347</v>
+      </c>
+      <c r="J579" t="n">
+        <v>346</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19557,19 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>346</v>
+      </c>
+      <c r="J580" t="n">
+        <v>346</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,10 +19598,14 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>347</v>
+      </c>
+      <c r="J581" t="n">
+        <v>347</v>
+      </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -19591,11 +19635,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>347</v>
+      </c>
+      <c r="J582" t="n">
+        <v>347</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19676,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>348</v>
+      </c>
+      <c r="J583" t="n">
+        <v>347</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19717,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>348</v>
+      </c>
+      <c r="J584" t="n">
+        <v>347</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19758,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>348</v>
+      </c>
+      <c r="J585" t="n">
+        <v>347</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19799,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>348</v>
+      </c>
+      <c r="J586" t="n">
+        <v>347</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19840,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>348</v>
+      </c>
+      <c r="J587" t="n">
+        <v>347</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19881,19 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>348</v>
+      </c>
+      <c r="J588" t="n">
+        <v>347</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19922,19 @@
         <v>-1176702.725514164</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>348</v>
+      </c>
+      <c r="J589" t="n">
+        <v>347</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +19963,19 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>346</v>
+      </c>
+      <c r="J590" t="n">
+        <v>347</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20004,19 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>348</v>
+      </c>
+      <c r="J591" t="n">
+        <v>347</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20045,19 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>348</v>
+      </c>
+      <c r="J592" t="n">
+        <v>347</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20086,19 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>348</v>
+      </c>
+      <c r="J593" t="n">
+        <v>347</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20127,19 @@
         <v>-1176633.147986578</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>348</v>
+      </c>
+      <c r="J594" t="n">
+        <v>347</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20168,19 @@
         <v>-1176633.147986578</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>349</v>
+      </c>
+      <c r="J595" t="n">
+        <v>347</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20209,19 @@
         <v>-1178289.364086578</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>349</v>
+      </c>
+      <c r="J596" t="n">
+        <v>347</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20250,19 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>348</v>
+      </c>
+      <c r="J597" t="n">
+        <v>347</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20291,19 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>349</v>
+      </c>
+      <c r="J598" t="n">
+        <v>347</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20332,19 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>349</v>
+      </c>
+      <c r="J599" t="n">
+        <v>347</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20373,19 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>349</v>
+      </c>
+      <c r="J600" t="n">
+        <v>347</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20414,19 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>349</v>
+      </c>
+      <c r="J601" t="n">
+        <v>347</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20455,19 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>349</v>
+      </c>
+      <c r="J602" t="n">
+        <v>347</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20496,19 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>350</v>
+      </c>
+      <c r="J603" t="n">
+        <v>347</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20537,19 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>350</v>
+      </c>
+      <c r="J604" t="n">
+        <v>347</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20578,19 @@
         <v>-1183952.944086578</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>350</v>
+      </c>
+      <c r="J605" t="n">
+        <v>347</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20619,19 @@
         <v>-1182471.944086578</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>348</v>
+      </c>
+      <c r="J606" t="n">
+        <v>347</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20660,19 @@
         <v>-1184120.979386578</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>349</v>
+      </c>
+      <c r="J607" t="n">
+        <v>347</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20701,19 @@
         <v>-1185431.920586578</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>348</v>
+      </c>
+      <c r="J608" t="n">
+        <v>347</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20742,19 @@
         <v>-1183996.920586578</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>347</v>
+      </c>
+      <c r="J609" t="n">
+        <v>347</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20783,19 @@
         <v>-1184931.529686578</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>349</v>
+      </c>
+      <c r="J610" t="n">
+        <v>347</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20824,19 @@
         <v>-1183749.590286578</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>348</v>
+      </c>
+      <c r="J611" t="n">
+        <v>347</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20865,19 @@
         <v>-1183749.590286578</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>349</v>
+      </c>
+      <c r="J612" t="n">
+        <v>347</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +20906,19 @@
         <v>-1183211.590286578</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>349</v>
+      </c>
+      <c r="J613" t="n">
+        <v>347</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +20947,19 @@
         <v>-1187947.375986578</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>350</v>
+      </c>
+      <c r="J614" t="n">
+        <v>347</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20988,19 @@
         <v>-1200973.849286578</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>349</v>
+      </c>
+      <c r="J615" t="n">
+        <v>347</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21029,19 @@
         <v>-1200973.849286578</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>347</v>
+      </c>
+      <c r="J616" t="n">
+        <v>347</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21070,19 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>347</v>
+      </c>
+      <c r="J617" t="n">
+        <v>347</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21111,19 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>346</v>
+      </c>
+      <c r="J618" t="n">
+        <v>347</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21152,19 @@
         <v>-1201751.859886578</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>346</v>
+      </c>
+      <c r="J619" t="n">
+        <v>347</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +21193,19 @@
         <v>-1201423.939086578</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>345</v>
+      </c>
+      <c r="J620" t="n">
+        <v>347</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21234,19 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>346</v>
+      </c>
+      <c r="J621" t="n">
+        <v>347</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21275,19 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>345</v>
+      </c>
+      <c r="J622" t="n">
+        <v>347</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21316,19 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>345</v>
+      </c>
+      <c r="J623" t="n">
+        <v>347</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21357,19 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>346</v>
+      </c>
+      <c r="J624" t="n">
+        <v>347</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21398,19 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>346</v>
+      </c>
+      <c r="J625" t="n">
+        <v>347</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21439,19 @@
         <v>-1206143.389086578</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>346</v>
+      </c>
+      <c r="J626" t="n">
+        <v>347</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21480,19 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>348</v>
+      </c>
+      <c r="J627" t="n">
+        <v>347</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21521,19 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>346</v>
+      </c>
+      <c r="J628" t="n">
+        <v>347</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21562,19 @@
         <v>-1183695.595986578</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>346</v>
+      </c>
+      <c r="J629" t="n">
+        <v>347</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21178,8 +21606,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>347</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21211,8 +21645,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>347</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21244,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>347</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21723,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>347</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21762,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>347</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +21801,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>347</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +21840,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>347</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +21879,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>347</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +21918,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>347</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +21957,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>347</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +21996,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>347</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +22035,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>347</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +22074,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>347</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +22113,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>347</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22152,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>347</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +22191,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>347</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +22230,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>347</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +22269,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>347</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +22308,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>347</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22347,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>347</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +22386,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>347</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21871,8 +22425,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>347</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +22464,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>347</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21937,8 +22503,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>347</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21970,8 +22542,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>347</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22003,8 +22581,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>347</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22036,8 +22620,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>347</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22069,8 +22659,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>347</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22102,8 +22698,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>347</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22135,8 +22737,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>347</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22168,8 +22776,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>347</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22201,8 +22815,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>347</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22234,8 +22854,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>347</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22267,8 +22893,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>347</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22300,8 +22932,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>347</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22968,19 @@
         <v>-1167855.103613983</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>342</v>
+      </c>
+      <c r="J665" t="n">
+        <v>347</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +23009,19 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>343</v>
+      </c>
+      <c r="J666" t="n">
+        <v>347</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +23050,19 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>342</v>
+      </c>
+      <c r="J667" t="n">
+        <v>347</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23091,19 @@
         <v>-1162633.714836302</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>342</v>
+      </c>
+      <c r="J668" t="n">
+        <v>347</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +23132,19 @@
         <v>-1162513.714936302</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>344</v>
+      </c>
+      <c r="J669" t="n">
+        <v>347</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +23173,19 @@
         <v>-1162473.714836302</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>345</v>
+      </c>
+      <c r="J670" t="n">
+        <v>347</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +23214,19 @@
         <v>-1161862.700536302</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>346</v>
+      </c>
+      <c r="J671" t="n">
+        <v>347</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22564,8 +23258,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>347</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22597,8 +23297,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>347</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22630,8 +23336,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>347</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22663,8 +23375,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>347</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +23414,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>347</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22729,8 +23453,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>347</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +23489,19 @@
         <v>-1165515.511236302</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>344</v>
+      </c>
+      <c r="J678" t="n">
+        <v>347</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +23533,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>347</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +23569,19 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>343</v>
+      </c>
+      <c r="J680" t="n">
+        <v>347</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +23610,19 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>344</v>
+      </c>
+      <c r="J681" t="n">
+        <v>347</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23651,19 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>344</v>
+      </c>
+      <c r="J682" t="n">
+        <v>347</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23692,19 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>344</v>
+      </c>
+      <c r="J683" t="n">
+        <v>347</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23733,19 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>344</v>
+      </c>
+      <c r="J684" t="n">
+        <v>347</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22993,8 +23777,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>347</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23026,8 +23816,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>347</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23059,8 +23855,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>347</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23891,19 @@
         <v>-1162893.011536302</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>343</v>
+      </c>
+      <c r="J688" t="n">
+        <v>347</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23125,8 +23935,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>347</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23971,19 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>340</v>
+      </c>
+      <c r="J690" t="n">
+        <v>347</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +24012,19 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>344</v>
+      </c>
+      <c r="J691" t="n">
+        <v>347</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +24053,19 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>344</v>
+      </c>
+      <c r="J692" t="n">
+        <v>347</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23257,8 +24097,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>347</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,15 +24133,15 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>345</v>
-      </c>
-      <c r="J694" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>347</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L694" t="n">
@@ -23326,12 +24172,12 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>346</v>
-      </c>
-      <c r="J695" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>347</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,12 +24211,12 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>346</v>
-      </c>
-      <c r="J696" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>347</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23407,7 +24253,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>347</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23444,7 +24292,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>347</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23481,7 +24331,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>347</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23518,7 +24370,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>347</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23555,7 +24409,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>347</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23589,12 +24445,12 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>345</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>347</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23628,12 +24484,12 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>345</v>
-      </c>
-      <c r="J703" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>347</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23670,7 +24526,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>347</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23707,7 +24565,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>347</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23746,7 +24606,9 @@
       <c r="I706" t="n">
         <v>343</v>
       </c>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>347</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23780,10 +24642,14 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>343</v>
+      </c>
+      <c r="J707" t="n">
+        <v>347</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23817,10 +24683,14 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>342</v>
+      </c>
+      <c r="J708" t="n">
+        <v>347</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23854,10 +24724,14 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>342</v>
+      </c>
+      <c r="J709" t="n">
+        <v>347</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23896,7 +24770,9 @@
       <c r="I710" t="n">
         <v>341</v>
       </c>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>347</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,7 +24811,9 @@
       <c r="I711" t="n">
         <v>341</v>
       </c>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>347</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23974,7 +24852,9 @@
       <c r="I712" t="n">
         <v>341</v>
       </c>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>347</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24013,7 +24893,9 @@
       <c r="I713" t="n">
         <v>342</v>
       </c>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>347</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24052,7 +24934,9 @@
       <c r="I714" t="n">
         <v>342</v>
       </c>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>347</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24091,7 +24975,9 @@
       <c r="I715" t="n">
         <v>342</v>
       </c>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>347</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24130,7 +25016,9 @@
       <c r="I716" t="n">
         <v>342</v>
       </c>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>347</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24169,7 +25057,9 @@
       <c r="I717" t="n">
         <v>342</v>
       </c>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>347</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24208,7 +25098,9 @@
       <c r="I718" t="n">
         <v>344</v>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>347</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24242,10 +25134,14 @@
         <v>-1198263.149736302</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>345</v>
+      </c>
+      <c r="J719" t="n">
+        <v>347</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24279,10 +25175,14 @@
         <v>-1198624.093736302</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>344</v>
+      </c>
+      <c r="J720" t="n">
+        <v>347</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24321,7 +25221,9 @@
       <c r="I721" t="n">
         <v>343</v>
       </c>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>347</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24360,7 +25262,9 @@
       <c r="I722" t="n">
         <v>342</v>
       </c>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>347</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24399,7 +25303,9 @@
       <c r="I723" t="n">
         <v>343</v>
       </c>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>347</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24438,7 +25344,9 @@
       <c r="I724" t="n">
         <v>343</v>
       </c>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>347</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24477,7 +25385,9 @@
       <c r="I725" t="n">
         <v>346</v>
       </c>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>347</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24511,10 +25421,14 @@
         <v>-1199487.647636302</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>346</v>
+      </c>
+      <c r="J726" t="n">
+        <v>347</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24548,10 +25462,14 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>343</v>
+      </c>
+      <c r="J727" t="n">
+        <v>347</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24585,10 +25503,14 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>344</v>
+      </c>
+      <c r="J728" t="n">
+        <v>347</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24622,10 +25544,14 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>344</v>
+      </c>
+      <c r="J729" t="n">
+        <v>347</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24659,10 +25585,14 @@
         <v>-1200400.634336302</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>344</v>
+      </c>
+      <c r="J730" t="n">
+        <v>347</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24696,10 +25626,14 @@
         <v>-1200399.634336302</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>343</v>
+      </c>
+      <c r="J731" t="n">
+        <v>347</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,10 +25667,14 @@
         <v>-1200302.732602197</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>345</v>
+      </c>
+      <c r="J732" t="n">
+        <v>347</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24770,10 +25708,14 @@
         <v>-1200352.732602197</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>346</v>
+      </c>
+      <c r="J733" t="n">
+        <v>347</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24807,10 +25749,14 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>345</v>
+      </c>
+      <c r="J734" t="n">
+        <v>347</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24844,10 +25790,14 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>343</v>
+      </c>
+      <c r="J735" t="n">
+        <v>347</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24881,10 +25831,14 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>343</v>
+      </c>
+      <c r="J736" t="n">
+        <v>347</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24918,10 +25872,14 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>343</v>
+      </c>
+      <c r="J737" t="n">
+        <v>347</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,10 +25913,14 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>343</v>
+      </c>
+      <c r="J738" t="n">
+        <v>347</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24992,10 +25954,14 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>344</v>
+      </c>
+      <c r="J739" t="n">
+        <v>347</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25029,10 +25995,14 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>344</v>
+      </c>
+      <c r="J740" t="n">
+        <v>347</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,10 +26036,14 @@
         <v>-1201833.734002197</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>344</v>
+      </c>
+      <c r="J741" t="n">
+        <v>347</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25103,10 +26077,14 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>345</v>
+      </c>
+      <c r="J742" t="n">
+        <v>347</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25140,10 +26118,14 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>344</v>
+      </c>
+      <c r="J743" t="n">
+        <v>347</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25177,10 +26159,14 @@
         <v>-1191944.954902197</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>344</v>
+      </c>
+      <c r="J744" t="n">
+        <v>347</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25214,10 +26200,14 @@
         <v>-1193143.398502198</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>345</v>
+      </c>
+      <c r="J745" t="n">
+        <v>347</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25251,10 +26241,14 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>343</v>
+      </c>
+      <c r="J746" t="n">
+        <v>347</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25288,10 +26282,14 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>345</v>
+      </c>
+      <c r="J747" t="n">
+        <v>347</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25325,10 +26323,14 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>345</v>
+      </c>
+      <c r="J748" t="n">
+        <v>347</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25362,10 +26364,14 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>342</v>
+      </c>
+      <c r="J749" t="n">
+        <v>347</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25399,10 +26405,14 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>342</v>
+      </c>
+      <c r="J750" t="n">
+        <v>347</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
